--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary van Valkenburg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1bb86313f1be7b60/Documents/DA13/Excel/lookups-exercise-Ebukacyril996/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7C883A7-9627-4DE3-BEC2-F91FFE6A3BBF}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="90" windowWidth="21877" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metro_budget" sheetId="1" r:id="rId1"/>
     <sheet name="data_dictionary" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">metro_budget!$A$1:$P$52</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -314,7 +317,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,11 +457,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -880,9 +885,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -920,7 +925,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1026,7 +1031,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1168,7 +1173,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1176,27 +1181,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P107"/>
+  <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
-    <col min="14" max="15" width="17.85546875" customWidth="1"/>
-    <col min="16" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="15.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" customWidth="1"/>
+    <col min="14" max="15" width="17.88671875" customWidth="1"/>
+    <col min="16" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1256,14 +1261,36 @@
       <c r="C2">
         <v>341243679.13</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="D2">
+        <f>(C2-B2)</f>
+        <v>-15396420.870000005</v>
+      </c>
+      <c r="E2" s="5">
+        <f>IFERROR(D2/B2,"0")</f>
+        <v>-4.3170750765267295E-2</v>
+      </c>
+      <c r="F2">
+        <f>RANK(E2,E:E,1)</f>
+        <v>14</v>
+      </c>
       <c r="G2">
         <v>382685200</v>
       </c>
       <c r="H2">
         <v>346340810.81999999</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="I2">
+        <f>(H2-G2)</f>
+        <v>-36344389.180000007</v>
+      </c>
+      <c r="J2" s="5">
+        <f>IFERROR(I2/G2, "0")</f>
+        <v>-9.4972027086493035E-2</v>
+      </c>
+      <c r="K2">
+        <f>RANK(J2, J:J)</f>
+        <v>39</v>
+      </c>
       <c r="L2">
         <v>376548600</v>
       </c>
@@ -1272,7 +1299,7 @@
       </c>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1282,14 +1309,36 @@
       <c r="C3">
         <v>321214.59000000003</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="D3">
+        <f>(C3-B3)</f>
+        <v>-7585.4099999999744</v>
+      </c>
+      <c r="E3" s="5">
+        <f>IFERROR(D3/B3,"0")</f>
+        <v>-2.3069981751824741E-2</v>
+      </c>
+      <c r="F3">
+        <f>RANK(E3,E:E,1)</f>
+        <v>22</v>
+      </c>
       <c r="G3">
         <v>334800</v>
       </c>
       <c r="H3">
         <v>312433.70999999897</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="I3">
+        <f>(H3-G3)</f>
+        <v>-22366.290000001027</v>
+      </c>
+      <c r="J3" s="5">
+        <f>IFERROR(I3/G3, "0")</f>
+        <v>-6.6804928315415249E-2</v>
+      </c>
+      <c r="K3">
+        <f>RANK(J3, J:J)</f>
+        <v>35</v>
+      </c>
       <c r="L3">
         <v>322700</v>
       </c>
@@ -1298,7 +1347,7 @@
       </c>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1308,14 +1357,36 @@
       <c r="C4">
         <v>3115157.5599999898</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="D4">
+        <f>(C4-B4)</f>
+        <v>-15442.440000010189</v>
+      </c>
+      <c r="E4" s="5">
+        <f>IFERROR(D4/B4,"0")</f>
+        <v>-4.9327413275443007E-3</v>
+      </c>
+      <c r="F4">
+        <f>RANK(E4,E:E,1)</f>
+        <v>42</v>
+      </c>
       <c r="G4">
         <v>3652300</v>
       </c>
       <c r="H4">
         <v>3589693.2099999902</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="I4">
+        <f>(H4-G4)</f>
+        <v>-62606.790000009816</v>
+      </c>
+      <c r="J4" s="5">
+        <f>IFERROR(I4/G4, "0")</f>
+        <v>-1.7141743558856015E-2</v>
+      </c>
+      <c r="K4">
+        <f>RANK(J4, J:J)</f>
+        <v>13</v>
+      </c>
       <c r="L4">
         <v>3662400</v>
       </c>
@@ -1324,7 +1395,7 @@
       </c>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1334,14 +1405,36 @@
       <c r="C5">
         <v>6947552.6699999999</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="D5">
+        <f>(C5-B5)</f>
+        <v>-723147.33000000007</v>
+      </c>
+      <c r="E5" s="5">
+        <f>IFERROR(D5/B5,"0")</f>
+        <v>-9.4273968477453174E-2</v>
+      </c>
+      <c r="F5">
+        <f>RANK(E5,E:E,1)</f>
+        <v>4</v>
+      </c>
       <c r="G5">
         <v>7968300</v>
       </c>
       <c r="H5">
         <v>7020609.3200000003</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="I5">
+        <f>(H5-G5)</f>
+        <v>-947690.6799999997</v>
+      </c>
+      <c r="J5" s="5">
+        <f>IFERROR(I5/G5, "0")</f>
+        <v>-0.118932605449092</v>
+      </c>
+      <c r="K5">
+        <f>RANK(J5, J:J)</f>
+        <v>44</v>
+      </c>
       <c r="L5">
         <v>7759600</v>
       </c>
@@ -1350,7 +1443,7 @@
       </c>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1360,14 +1453,36 @@
       <c r="C6">
         <v>385908.52</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="D6">
+        <f>(C6-B6)</f>
+        <v>-23391.479999999981</v>
+      </c>
+      <c r="E6" s="5">
+        <f>IFERROR(D6/B6,"0")</f>
+        <v>-5.7149963352064452E-2</v>
+      </c>
+      <c r="F6">
+        <f>RANK(E6,E:E,1)</f>
+        <v>11</v>
+      </c>
       <c r="G6">
         <v>428500</v>
       </c>
       <c r="H6">
         <v>427758.64</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="I6">
+        <f>(H6-G6)</f>
+        <v>-741.35999999998603</v>
+      </c>
+      <c r="J6" s="5">
+        <f>IFERROR(I6/G6, "0")</f>
+        <v>-1.7301283547257551E-3</v>
+      </c>
+      <c r="K6">
+        <f>RANK(J6, J:J)</f>
+        <v>5</v>
+      </c>
       <c r="L6">
         <v>445200</v>
       </c>
@@ -1376,7 +1491,7 @@
       </c>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1386,14 +1501,36 @@
       <c r="C7">
         <v>2946071.21</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="D7">
+        <f>(C7-B7)</f>
+        <v>-382928.79000000004</v>
+      </c>
+      <c r="E7" s="5">
+        <f>IFERROR(D7/B7,"0")</f>
+        <v>-0.11502817362571344</v>
+      </c>
+      <c r="F7">
+        <f>RANK(E7,E:E,1)</f>
+        <v>2</v>
+      </c>
       <c r="G7">
         <v>3390900</v>
       </c>
       <c r="H7">
         <v>3051483.41</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="I7">
+        <f>(H7-G7)</f>
+        <v>-339416.58999999985</v>
+      </c>
+      <c r="J7" s="5">
+        <f>IFERROR(I7/G7, "0")</f>
+        <v>-0.10009631366303927</v>
+      </c>
+      <c r="K7">
+        <f>RANK(J7, J:J)</f>
+        <v>41</v>
+      </c>
       <c r="L7">
         <v>3345200</v>
       </c>
@@ -1402,7 +1539,7 @@
       </c>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1412,14 +1549,36 @@
       <c r="C8">
         <v>1315623.30999999</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="D8">
+        <f>(C8-B8)</f>
+        <v>-236476.69000000996</v>
+      </c>
+      <c r="E8" s="5">
+        <f>IFERROR(D8/B8,"0")</f>
+        <v>-0.15235918433091292</v>
+      </c>
+      <c r="F8">
+        <f>RANK(E8,E:E,1)</f>
+        <v>1</v>
+      </c>
       <c r="G8">
         <v>1590700</v>
       </c>
       <c r="H8">
         <v>1383905.98999999</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="I8">
+        <f>(H8-G8)</f>
+        <v>-206794.01000001002</v>
+      </c>
+      <c r="J8" s="5">
+        <f>IFERROR(I8/G8, "0")</f>
+        <v>-0.13000189224870184</v>
+      </c>
+      <c r="K8">
+        <f>RANK(J8, J:J)</f>
+        <v>45</v>
+      </c>
       <c r="L8">
         <v>1579300</v>
       </c>
@@ -1428,7 +1587,7 @@
       </c>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1438,14 +1597,36 @@
       <c r="C9">
         <v>8952825.2799999993</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="D9">
+        <f>(C9-B9)</f>
+        <v>-396574.72000000067</v>
+      </c>
+      <c r="E9" s="5">
+        <f>IFERROR(D9/B9,"0")</f>
+        <v>-4.2417130511048909E-2</v>
+      </c>
+      <c r="F9">
+        <f>RANK(E9,E:E,1)</f>
+        <v>16</v>
+      </c>
       <c r="G9">
         <v>11073700</v>
       </c>
       <c r="H9">
         <v>9929059.5199999996</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="I9">
+        <f>(H9-G9)</f>
+        <v>-1144640.4800000004</v>
+      </c>
+      <c r="J9" s="5">
+        <f>IFERROR(I9/G9, "0")</f>
+        <v>-0.10336567542917005</v>
+      </c>
+      <c r="K9">
+        <f>RANK(J9, J:J)</f>
+        <v>42</v>
+      </c>
       <c r="L9">
         <v>10790500</v>
       </c>
@@ -1454,7 +1635,7 @@
       </c>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1464,14 +1645,36 @@
       <c r="C10">
         <v>407090.37</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="D10">
+        <f>(C10-B10)</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="E10" s="5">
+        <f>IFERROR(D10/B10,"0")</f>
+        <v>-8.1681998646514792E-2</v>
+      </c>
+      <c r="F10">
+        <f>RANK(E10,E:E,1)</f>
+        <v>6</v>
+      </c>
       <c r="G10">
         <v>495200</v>
       </c>
       <c r="H10">
         <v>467907.84000000003</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="I10">
+        <f>(H10-G10)</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="J10" s="5">
+        <f>IFERROR(I10/G10, "0")</f>
+        <v>-5.5113408723747932E-2</v>
+      </c>
+      <c r="K10">
+        <f>RANK(J10, J:J)</f>
+        <v>32</v>
+      </c>
       <c r="L10">
         <v>487500</v>
       </c>
@@ -1480,7 +1683,7 @@
       </c>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1490,14 +1693,36 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="D11">
+        <f>(C11-B11)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f>IFERROR(D11/B11,"0")</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>RANK(E11,E:E,1)</f>
+        <v>47</v>
+      </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="I11">
+        <f>(H11-G11)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="str">
+        <f>IFERROR(I11/G11, "0")</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>RANK(J11, J:J)</f>
+        <v>1</v>
+      </c>
       <c r="L11">
         <v>375000</v>
       </c>
@@ -1506,7 +1731,7 @@
       </c>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1516,14 +1741,36 @@
       <c r="C12">
         <v>4066595.33</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="D12">
+        <f>(C12-B12)</f>
+        <v>-214304.66999999993</v>
+      </c>
+      <c r="E12" s="5">
+        <f>IFERROR(D12/B12,"0")</f>
+        <v>-5.0060657805601608E-2</v>
+      </c>
+      <c r="F12">
+        <f>RANK(E12,E:E,1)</f>
+        <v>13</v>
+      </c>
       <c r="G12">
         <v>4700400</v>
       </c>
       <c r="H12">
         <v>4205555.5999999996</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="I12">
+        <f>(H12-G12)</f>
+        <v>-494844.40000000037</v>
+      </c>
+      <c r="J12" s="5">
+        <f>IFERROR(I12/G12, "0")</f>
+        <v>-0.10527708280146378</v>
+      </c>
+      <c r="K12">
+        <f>RANK(J12, J:J)</f>
+        <v>43</v>
+      </c>
       <c r="L12">
         <v>4677800</v>
       </c>
@@ -1532,7 +1779,7 @@
       </c>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1542,14 +1789,36 @@
       <c r="C13">
         <v>5772288.3300000001</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="D13">
+        <f>(C13-B13)</f>
+        <v>-75511.669999999925</v>
+      </c>
+      <c r="E13" s="5">
+        <f>IFERROR(D13/B13,"0")</f>
+        <v>-1.2912833886247806E-2</v>
+      </c>
+      <c r="F13">
+        <f>RANK(E13,E:E,1)</f>
+        <v>33</v>
+      </c>
       <c r="G13">
         <v>6223700</v>
       </c>
       <c r="H13">
         <v>5909077.9399999902</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="I13">
+        <f>(H13-G13)</f>
+        <v>-314622.06000000983</v>
+      </c>
+      <c r="J13" s="5">
+        <f>IFERROR(I13/G13, "0")</f>
+        <v>-5.0552253482656594E-2</v>
+      </c>
+      <c r="K13">
+        <f>RANK(J13, J:J)</f>
+        <v>31</v>
+      </c>
       <c r="L13">
         <v>6207300</v>
       </c>
@@ -1558,7 +1827,7 @@
       </c>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1568,14 +1837,36 @@
       <c r="C14">
         <v>505017.37</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="D14">
+        <f>(C14-B14)</f>
+        <v>-6982.6300000000047</v>
+      </c>
+      <c r="E14" s="5">
+        <f>IFERROR(D14/B14,"0")</f>
+        <v>-1.3637949218750009E-2</v>
+      </c>
+      <c r="F14">
+        <f>RANK(E14,E:E,1)</f>
+        <v>30</v>
+      </c>
       <c r="G14">
         <v>530500</v>
       </c>
       <c r="H14">
         <v>524402.98</v>
       </c>
-      <c r="J14" s="5"/>
+      <c r="I14">
+        <f>(H14-G14)</f>
+        <v>-6097.0200000000186</v>
+      </c>
+      <c r="J14" s="5">
+        <f>IFERROR(I14/G14, "0")</f>
+        <v>-1.1492968897266765E-2</v>
+      </c>
+      <c r="K14">
+        <f>RANK(J14, J:J)</f>
+        <v>9</v>
+      </c>
       <c r="L14">
         <v>526200</v>
       </c>
@@ -1584,7 +1875,7 @@
       </c>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1594,14 +1885,36 @@
       <c r="C15">
         <v>156545919.90000001</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="D15">
+        <f>(C15-B15)</f>
+        <v>496819.90000000596</v>
+      </c>
+      <c r="E15" s="5">
+        <f>IFERROR(D15/B15,"0")</f>
+        <v>3.1837408866824991E-3</v>
+      </c>
+      <c r="F15">
+        <f>RANK(E15,E:E,1)</f>
+        <v>48</v>
+      </c>
       <c r="G15">
         <v>184167800</v>
       </c>
       <c r="H15">
         <v>175966389.24999899</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="I15">
+        <f>(H15-G15)</f>
+        <v>-8201410.7500010133</v>
+      </c>
+      <c r="J15" s="5">
+        <f>IFERROR(I15/G15, "0")</f>
+        <v>-4.4532273014072019E-2</v>
+      </c>
+      <c r="K15">
+        <f>RANK(J15, J:J)</f>
+        <v>25</v>
+      </c>
       <c r="L15">
         <v>188953500</v>
       </c>
@@ -1610,7 +1923,7 @@
       </c>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1620,14 +1933,36 @@
       <c r="C16">
         <v>6522480.4599999897</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="D16">
+        <f>(C16-B16)</f>
+        <v>-78219.540000010282</v>
+      </c>
+      <c r="E16" s="5">
+        <f>IFERROR(D16/B16,"0")</f>
+        <v>-1.1850188616360429E-2</v>
+      </c>
+      <c r="F16">
+        <f>RANK(E16,E:E,1)</f>
+        <v>37</v>
+      </c>
       <c r="G16">
         <v>7352500</v>
       </c>
       <c r="H16">
         <v>7350464.0800000001</v>
       </c>
-      <c r="J16" s="5"/>
+      <c r="I16">
+        <f>(H16-G16)</f>
+        <v>-2035.9199999999255</v>
+      </c>
+      <c r="J16" s="5">
+        <f>IFERROR(I16/G16, "0")</f>
+        <v>-2.769017341040361E-4</v>
+      </c>
+      <c r="K16">
+        <f>RANK(J16, J:J)</f>
+        <v>3</v>
+      </c>
       <c r="L16">
         <v>7397200</v>
       </c>
@@ -1636,7 +1971,7 @@
       </c>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1646,14 +1981,36 @@
       <c r="C17">
         <v>14439480.050000001</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="D17">
+        <f>(C17-B17)</f>
+        <v>-421319.94999999925</v>
+      </c>
+      <c r="E17" s="5">
+        <f>IFERROR(D17/B17,"0")</f>
+        <v>-2.8351094826658003E-2</v>
+      </c>
+      <c r="F17">
+        <f>RANK(E17,E:E,1)</f>
+        <v>21</v>
+      </c>
       <c r="G17">
         <v>15309700</v>
       </c>
       <c r="H17">
         <v>14645233.51</v>
       </c>
-      <c r="J17" s="5"/>
+      <c r="I17">
+        <f>(H17-G17)</f>
+        <v>-664466.49000000022</v>
+      </c>
+      <c r="J17" s="5">
+        <f>IFERROR(I17/G17, "0")</f>
+        <v>-4.3401666263871937E-2</v>
+      </c>
+      <c r="K17">
+        <f>RANK(J17, J:J)</f>
+        <v>24</v>
+      </c>
       <c r="L17">
         <v>15311800</v>
       </c>
@@ -1662,7 +2019,7 @@
       </c>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1672,14 +2029,36 @@
       <c r="C18">
         <v>2615303.8999999901</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="D18">
+        <f>(C18-B18)</f>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="E18" s="5">
+        <f>IFERROR(D18/B18,"0")</f>
+        <v>-5.4037002206391245E-2</v>
+      </c>
+      <c r="F18">
+        <f>RANK(E18,E:E,1)</f>
+        <v>12</v>
+      </c>
       <c r="G18">
         <v>2861000</v>
       </c>
       <c r="H18">
         <v>2671745.94</v>
       </c>
-      <c r="J18" s="5"/>
+      <c r="I18">
+        <f>(H18-G18)</f>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="J18" s="5">
+        <f>IFERROR(I18/G18, "0")</f>
+        <v>-6.6149619014330668E-2</v>
+      </c>
+      <c r="K18">
+        <f>RANK(J18, J:J)</f>
+        <v>34</v>
+      </c>
       <c r="L18">
         <v>2910600</v>
       </c>
@@ -1688,7 +2067,7 @@
       </c>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1698,14 +2077,36 @@
       <c r="C19">
         <v>8460963.1999999899</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="D19">
+        <f>(C19-B19)</f>
+        <v>-376336.80000001006</v>
+      </c>
+      <c r="E19" s="5">
+        <f>IFERROR(D19/B19,"0")</f>
+        <v>-4.258504294298146E-2</v>
+      </c>
+      <c r="F19">
+        <f>RANK(E19,E:E,1)</f>
+        <v>15</v>
+      </c>
       <c r="G19">
         <v>9713300</v>
       </c>
       <c r="H19">
         <v>8991707.2399999909</v>
       </c>
-      <c r="J19" s="5"/>
+      <c r="I19">
+        <f>(H19-G19)</f>
+        <v>-721592.76000000909</v>
+      </c>
+      <c r="J19" s="5">
+        <f>IFERROR(I19/G19, "0")</f>
+        <v>-7.4289145810384635E-2</v>
+      </c>
+      <c r="K19">
+        <f>RANK(J19, J:J)</f>
+        <v>37</v>
+      </c>
       <c r="L19">
         <v>9343000</v>
       </c>
@@ -1714,7 +2115,7 @@
       </c>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1724,14 +2125,36 @@
       <c r="C20">
         <v>124384360.159999</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="D20">
+        <f>(C20-B20)</f>
+        <v>-1539.8400010019541</v>
+      </c>
+      <c r="E20" s="5">
+        <f>IFERROR(D20/B20,"0")</f>
+        <v>-1.2379538203300809E-5</v>
+      </c>
+      <c r="F20">
+        <f>RANK(E20,E:E,1)</f>
+        <v>46</v>
+      </c>
       <c r="G20">
         <v>131849400</v>
       </c>
       <c r="H20">
         <v>131839624.37</v>
       </c>
-      <c r="J20" s="5"/>
+      <c r="I20">
+        <f>(H20-G20)</f>
+        <v>-9775.6299999952316</v>
+      </c>
+      <c r="J20" s="5">
+        <f>IFERROR(I20/G20, "0")</f>
+        <v>-7.4142392760188761E-5</v>
+      </c>
+      <c r="K20">
+        <f>RANK(J20, J:J)</f>
+        <v>2</v>
+      </c>
       <c r="L20">
         <v>130621400</v>
       </c>
@@ -1740,7 +2163,7 @@
       </c>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1750,14 +2173,36 @@
       <c r="C21">
         <v>22408587.5499999</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="D21">
+        <f>(C21-B21)</f>
+        <v>-1923512.4500000998</v>
+      </c>
+      <c r="E21" s="5">
+        <f>IFERROR(D21/B21,"0")</f>
+        <v>-7.9052463618023094E-2</v>
+      </c>
+      <c r="F21">
+        <f>RANK(E21,E:E,1)</f>
+        <v>9</v>
+      </c>
       <c r="G21">
         <v>24497400</v>
       </c>
       <c r="H21">
         <v>22655993.629999999</v>
       </c>
-      <c r="J21" s="5"/>
+      <c r="I21">
+        <f>(H21-G21)</f>
+        <v>-1841406.370000001</v>
+      </c>
+      <c r="J21" s="5">
+        <f>IFERROR(I21/G21, "0")</f>
+        <v>-7.5167420624229556E-2</v>
+      </c>
+      <c r="K21">
+        <f>RANK(J21, J:J)</f>
+        <v>38</v>
+      </c>
       <c r="L21">
         <v>24323000</v>
       </c>
@@ -1766,7 +2211,7 @@
       </c>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1776,14 +2221,36 @@
       <c r="C22">
         <v>11412339.8799999</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="D22">
+        <f>(C22-B22)</f>
+        <v>-153660.12000009976</v>
+      </c>
+      <c r="E22" s="5">
+        <f>IFERROR(D22/B22,"0")</f>
+        <v>-1.3285502334437123E-2</v>
+      </c>
+      <c r="F22">
+        <f>RANK(E22,E:E,1)</f>
+        <v>32</v>
+      </c>
       <c r="G22">
         <v>11980700</v>
       </c>
       <c r="H22">
         <v>11791977.9699999</v>
       </c>
-      <c r="J22" s="5"/>
+      <c r="I22">
+        <f>(H22-G22)</f>
+        <v>-188722.03000009991</v>
+      </c>
+      <c r="J22" s="5">
+        <f>IFERROR(I22/G22, "0")</f>
+        <v>-1.5752170574348738E-2</v>
+      </c>
+      <c r="K22">
+        <f>RANK(J22, J:J)</f>
+        <v>11</v>
+      </c>
       <c r="L22">
         <v>11935200</v>
       </c>
@@ -1792,7 +2259,7 @@
       </c>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1802,14 +2269,36 @@
       <c r="C23">
         <v>20036743.4099999</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="D23">
+        <f>(C23-B23)</f>
+        <v>-825956.59000010043</v>
+      </c>
+      <c r="E23" s="5">
+        <f>IFERROR(D23/B23,"0")</f>
+        <v>-3.9590110100806722E-2</v>
+      </c>
+      <c r="F23">
+        <f>RANK(E23,E:E,1)</f>
+        <v>18</v>
+      </c>
       <c r="G23">
         <v>22683800</v>
       </c>
       <c r="H23">
         <v>21722126.219999898</v>
       </c>
-      <c r="J23" s="5"/>
+      <c r="I23">
+        <f>(H23-G23)</f>
+        <v>-961673.78000010177</v>
+      </c>
+      <c r="J23" s="5">
+        <f>IFERROR(I23/G23, "0")</f>
+        <v>-4.2394738976719144E-2</v>
+      </c>
+      <c r="K23">
+        <f>RANK(J23, J:J)</f>
+        <v>23</v>
+      </c>
       <c r="L23">
         <v>23220300</v>
       </c>
@@ -1818,7 +2307,7 @@
       </c>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1828,14 +2317,36 @@
       <c r="C24">
         <v>904969.19</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="D24">
+        <f>(C24-B24)</f>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="E24" s="5">
+        <f>IFERROR(D24/B24,"0")</f>
+        <v>-1.3334943305713101E-2</v>
+      </c>
+      <c r="F24">
+        <f>RANK(E24,E:E,1)</f>
+        <v>31</v>
+      </c>
       <c r="G24">
         <v>1112700</v>
       </c>
       <c r="H24">
         <v>1067214.42</v>
       </c>
-      <c r="J24" s="5"/>
+      <c r="I24">
+        <f>(H24-G24)</f>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="J24" s="5">
+        <f>IFERROR(I24/G24, "0")</f>
+        <v>-4.087856565111897E-2</v>
+      </c>
+      <c r="K24">
+        <f>RANK(J24, J:J)</f>
+        <v>21</v>
+      </c>
       <c r="L24">
         <v>1112600</v>
       </c>
@@ -1844,7 +2355,7 @@
       </c>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1854,14 +2365,36 @@
       <c r="C25">
         <v>479149.53</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="D25">
+        <f>(C25-B25)</f>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="E25" s="5">
+        <f>IFERROR(D25/B25,"0")</f>
+        <v>-1.0226130964676661E-2</v>
+      </c>
+      <c r="F25">
+        <f>RANK(E25,E:E,1)</f>
+        <v>38</v>
+      </c>
       <c r="G25">
         <v>505200</v>
       </c>
       <c r="H25">
         <v>497194.20999999897</v>
       </c>
-      <c r="J25" s="5"/>
+      <c r="I25">
+        <f>(H25-G25)</f>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="J25" s="5">
+        <f>IFERROR(I25/G25, "0")</f>
+        <v>-1.5846773555029746E-2</v>
+      </c>
+      <c r="K25">
+        <f>RANK(J25, J:J)</f>
+        <v>12</v>
+      </c>
       <c r="L25">
         <v>496500</v>
       </c>
@@ -1870,7 +2403,7 @@
       </c>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1880,14 +2413,36 @@
       <c r="C26">
         <v>4801960.08</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="D26">
+        <f>(C26-B26)</f>
+        <v>-447839.91999999993</v>
+      </c>
+      <c r="E26" s="5">
+        <f>IFERROR(D26/B26,"0")</f>
+        <v>-8.5306091660634673E-2</v>
+      </c>
+      <c r="F26">
+        <f>RANK(E26,E:E,1)</f>
+        <v>5</v>
+      </c>
       <c r="G26">
         <v>5442200</v>
       </c>
       <c r="H26">
         <v>5122329.02999999</v>
       </c>
-      <c r="J26" s="5"/>
+      <c r="I26">
+        <f>(H26-G26)</f>
+        <v>-319870.97000000998</v>
+      </c>
+      <c r="J26" s="5">
+        <f>IFERROR(I26/G26, "0")</f>
+        <v>-5.8776040939327839E-2</v>
+      </c>
+      <c r="K26">
+        <f>RANK(J26, J:J)</f>
+        <v>33</v>
+      </c>
       <c r="L26">
         <v>5430700</v>
       </c>
@@ -1896,7 +2451,7 @@
       </c>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1906,14 +2461,36 @@
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="D27">
+        <f>(C27-B27)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="5" t="str">
+        <f>IFERROR(D27/B27,"0")</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>RANK(E27,E:E,1)</f>
+        <v>47</v>
+      </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="J27" s="5"/>
+      <c r="I27">
+        <f>(H27-G27)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="5" t="str">
+        <f>IFERROR(I27/G27, "0")</f>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f>RANK(J27, J:J)</f>
+        <v>1</v>
+      </c>
       <c r="L27">
         <v>0</v>
       </c>
@@ -1922,7 +2499,7 @@
       </c>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1932,14 +2509,36 @@
       <c r="C28">
         <v>1250442.02</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="D28">
+        <f>(C28-B28)</f>
+        <v>-132457.97999999998</v>
+      </c>
+      <c r="E28" s="5">
+        <f>IFERROR(D28/B28,"0")</f>
+        <v>-9.5782760864849215E-2</v>
+      </c>
+      <c r="F28">
+        <f>RANK(E28,E:E,1)</f>
+        <v>3</v>
+      </c>
       <c r="G28">
         <v>1545700</v>
       </c>
       <c r="H28">
         <v>1281335.23</v>
       </c>
-      <c r="J28" s="5"/>
+      <c r="I28">
+        <f>(H28-G28)</f>
+        <v>-264364.77</v>
+      </c>
+      <c r="J28" s="5">
+        <f>IFERROR(I28/G28, "0")</f>
+        <v>-0.17103239309050916</v>
+      </c>
+      <c r="K28">
+        <f>RANK(J28, J:J)</f>
+        <v>47</v>
+      </c>
       <c r="L28">
         <v>1525900</v>
       </c>
@@ -1948,7 +2547,7 @@
       </c>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1958,14 +2557,36 @@
       <c r="C29">
         <v>2523884.71</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="D29">
+        <f>(C29-B29)</f>
+        <v>-37915.290000000037</v>
+      </c>
+      <c r="E29" s="5">
+        <f>IFERROR(D29/B29,"0")</f>
+        <v>-1.4800253727847622E-2</v>
+      </c>
+      <c r="F29">
+        <f>RANK(E29,E:E,1)</f>
+        <v>28</v>
+      </c>
       <c r="G29">
         <v>2779500</v>
       </c>
       <c r="H29">
         <v>2665264.4399999902</v>
       </c>
-      <c r="J29" s="5"/>
+      <c r="I29">
+        <f>(H29-G29)</f>
+        <v>-114235.56000000983</v>
+      </c>
+      <c r="J29" s="5">
+        <f>IFERROR(I29/G29, "0")</f>
+        <v>-4.1099320021590155E-2</v>
+      </c>
+      <c r="K29">
+        <f>RANK(J29, J:J)</f>
+        <v>22</v>
+      </c>
       <c r="L29">
         <v>2889900</v>
       </c>
@@ -1974,7 +2595,7 @@
       </c>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1984,14 +2605,36 @@
       <c r="C30">
         <v>12030494.1</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="D30">
+        <f>(C30-B30)</f>
+        <v>-101705.90000000037</v>
+      </c>
+      <c r="E30" s="5">
+        <f>IFERROR(D30/B30,"0")</f>
+        <v>-8.3831374359143746E-3</v>
+      </c>
+      <c r="F30">
+        <f>RANK(E30,E:E,1)</f>
+        <v>40</v>
+      </c>
       <c r="G30">
         <v>12735900</v>
       </c>
       <c r="H30">
         <v>12685514.279999901</v>
       </c>
-      <c r="J30" s="5"/>
+      <c r="I30">
+        <f>(H30-G30)</f>
+        <v>-50385.720000099391</v>
+      </c>
+      <c r="J30" s="5">
+        <f>IFERROR(I30/G30, "0")</f>
+        <v>-3.9561962641116366E-3</v>
+      </c>
+      <c r="K30">
+        <f>RANK(J30, J:J)</f>
+        <v>7</v>
+      </c>
       <c r="L30">
         <v>12861300</v>
       </c>
@@ -2000,7 +2643,7 @@
       </c>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -2010,14 +2653,36 @@
       <c r="C31">
         <v>1740827.69</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="D31">
+        <f>(C31-B31)</f>
+        <v>-24772.310000000056</v>
+      </c>
+      <c r="E31" s="5">
+        <f>IFERROR(D31/B31,"0")</f>
+        <v>-1.4030533529678329E-2</v>
+      </c>
+      <c r="F31">
+        <f>RANK(E31,E:E,1)</f>
+        <v>29</v>
+      </c>
       <c r="G31">
         <v>1823300</v>
       </c>
       <c r="H31">
         <v>1762676.85</v>
       </c>
-      <c r="J31" s="5"/>
+      <c r="I31">
+        <f>(H31-G31)</f>
+        <v>-60623.149999999907</v>
+      </c>
+      <c r="J31" s="5">
+        <f>IFERROR(I31/G31, "0")</f>
+        <v>-3.3249136181648611E-2</v>
+      </c>
+      <c r="K31">
+        <f>RANK(J31, J:J)</f>
+        <v>17</v>
+      </c>
       <c r="L31">
         <v>1870700</v>
       </c>
@@ -2026,7 +2691,7 @@
       </c>
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2036,14 +2701,36 @@
       <c r="C32">
         <v>5925637.7199999904</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="D32">
+        <f>(C32-B32)</f>
+        <v>-73762.280000009574</v>
+      </c>
+      <c r="E32" s="5">
+        <f>IFERROR(D32/B32,"0")</f>
+        <v>-1.2294942827617691E-2</v>
+      </c>
+      <c r="F32">
+        <f>RANK(E32,E:E,1)</f>
+        <v>36</v>
+      </c>
       <c r="G32">
         <v>6195500</v>
       </c>
       <c r="H32">
         <v>6084985.4699999997</v>
       </c>
-      <c r="J32" s="5"/>
+      <c r="I32">
+        <f>(H32-G32)</f>
+        <v>-110514.53000000026</v>
+      </c>
+      <c r="J32" s="5">
+        <f>IFERROR(I32/G32, "0")</f>
+        <v>-1.7837871035428981E-2</v>
+      </c>
+      <c r="K32">
+        <f>RANK(J32, J:J)</f>
+        <v>14</v>
+      </c>
       <c r="L32">
         <v>6157400</v>
       </c>
@@ -2052,7 +2739,7 @@
       </c>
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -2062,14 +2749,36 @@
       <c r="C33">
         <v>920284264.73000002</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="D33">
+        <f>(C33-B33)</f>
+        <v>-7418835.2699990273</v>
+      </c>
+      <c r="E33" s="5">
+        <f>IFERROR(D33/B33,"0")</f>
+        <v>-7.9969930789269058E-3</v>
+      </c>
+      <c r="F33">
+        <f>RANK(E33,E:E,1)</f>
+        <v>41</v>
+      </c>
       <c r="G33">
         <v>979671000</v>
       </c>
       <c r="H33">
         <v>977068513.48000002</v>
       </c>
-      <c r="J33" s="5"/>
+      <c r="I33">
+        <f>(H33-G33)</f>
+        <v>-2602486.5199999809</v>
+      </c>
+      <c r="J33" s="5">
+        <f>IFERROR(I33/G33, "0")</f>
+        <v>-2.6564903115433454E-3</v>
+      </c>
+      <c r="K33">
+        <f>RANK(J33, J:J)</f>
+        <v>6</v>
+      </c>
       <c r="L33">
         <v>989572899.99999905</v>
       </c>
@@ -2078,7 +2787,7 @@
       </c>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -2088,14 +2797,36 @@
       <c r="C34">
         <v>4109958.22</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="D34">
+        <f>(C34-B34)</f>
+        <v>-79341.779999999795</v>
+      </c>
+      <c r="E34" s="5">
+        <f>IFERROR(D34/B34,"0")</f>
+        <v>-1.8939149738619768E-2</v>
+      </c>
+      <c r="F34">
+        <f>RANK(E34,E:E,1)</f>
+        <v>26</v>
+      </c>
       <c r="G34">
         <v>4350600</v>
       </c>
       <c r="H34">
         <v>4137588.7699999898</v>
       </c>
-      <c r="J34" s="5"/>
+      <c r="I34">
+        <f>(H34-G34)</f>
+        <v>-213011.23000001023</v>
+      </c>
+      <c r="J34" s="5">
+        <f>IFERROR(I34/G34, "0")</f>
+        <v>-4.8961345561534093E-2</v>
+      </c>
+      <c r="K34">
+        <f>RANK(J34, J:J)</f>
+        <v>28</v>
+      </c>
       <c r="L34">
         <v>4345600</v>
       </c>
@@ -2104,7 +2835,7 @@
       </c>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -2114,14 +2845,36 @@
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="D35">
+        <f>(C35-B35)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="5" t="str">
+        <f>IFERROR(D35/B35,"0")</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f>RANK(E35,E:E,1)</f>
+        <v>47</v>
+      </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="J35" s="5"/>
+      <c r="I35">
+        <f>(H35-G35)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="5" t="str">
+        <f>IFERROR(I35/G35, "0")</f>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f>RANK(J35, J:J)</f>
+        <v>1</v>
+      </c>
       <c r="L35">
         <v>0</v>
       </c>
@@ -2130,7 +2883,7 @@
       </c>
       <c r="O35" s="5"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -2140,14 +2893,36 @@
       <c r="C36">
         <v>735423.27999999898</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="D36">
+        <f>(C36-B36)</f>
+        <v>-62776.72000000102</v>
+      </c>
+      <c r="E36" s="5">
+        <f>IFERROR(D36/B36,"0")</f>
+        <v>-7.8647857679780775E-2</v>
+      </c>
+      <c r="F36">
+        <f>RANK(E36,E:E,1)</f>
+        <v>10</v>
+      </c>
       <c r="G36">
         <v>898700</v>
       </c>
       <c r="H36">
         <v>740966.94999999902</v>
       </c>
-      <c r="J36" s="5"/>
+      <c r="I36">
+        <f>(H36-G36)</f>
+        <v>-157733.05000000098</v>
+      </c>
+      <c r="J36" s="5">
+        <f>IFERROR(I36/G36, "0")</f>
+        <v>-0.17551246244575608</v>
+      </c>
+      <c r="K36">
+        <f>RANK(J36, J:J)</f>
+        <v>48</v>
+      </c>
       <c r="L36">
         <v>878300</v>
       </c>
@@ -2156,7 +2931,7 @@
       </c>
       <c r="O36" s="5"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -2166,14 +2941,36 @@
       <c r="C37">
         <v>2005447.73999999</v>
       </c>
-      <c r="E37" s="5"/>
+      <c r="D37">
+        <f>(C37-B37)</f>
+        <v>-82352.260000010021</v>
+      </c>
+      <c r="E37" s="5">
+        <f>IFERROR(D37/B37,"0")</f>
+        <v>-3.9444515758219188E-2</v>
+      </c>
+      <c r="F37">
+        <f>RANK(E37,E:E,1)</f>
+        <v>19</v>
+      </c>
       <c r="G37">
         <v>2229200</v>
       </c>
       <c r="H37">
         <v>2118943.21</v>
       </c>
-      <c r="J37" s="5"/>
+      <c r="I37">
+        <f>(H37-G37)</f>
+        <v>-110256.79000000004</v>
+      </c>
+      <c r="J37" s="5">
+        <f>IFERROR(I37/G37, "0")</f>
+        <v>-4.9460250314014013E-2</v>
+      </c>
+      <c r="K37">
+        <f>RANK(J37, J:J)</f>
+        <v>29</v>
+      </c>
       <c r="L37">
         <v>2296900</v>
       </c>
@@ -2182,7 +2979,7 @@
       </c>
       <c r="O37" s="5"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -2192,14 +2989,36 @@
       <c r="C38">
         <v>838669.82</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="D38">
+        <f>(C38-B38)</f>
+        <v>-16630.180000000051</v>
+      </c>
+      <c r="E38" s="5">
+        <f>IFERROR(D38/B38,"0")</f>
+        <v>-1.9443680579913542E-2</v>
+      </c>
+      <c r="F38">
+        <f>RANK(E38,E:E,1)</f>
+        <v>25</v>
+      </c>
       <c r="G38">
         <v>792800</v>
       </c>
       <c r="H38">
         <v>753451.96</v>
       </c>
-      <c r="J38" s="5"/>
+      <c r="I38">
+        <f>(H38-G38)</f>
+        <v>-39348.040000000037</v>
+      </c>
+      <c r="J38" s="5">
+        <f>IFERROR(I38/G38, "0")</f>
+        <v>-4.9631735620585316E-2</v>
+      </c>
+      <c r="K38">
+        <f>RANK(J38, J:J)</f>
+        <v>30</v>
+      </c>
       <c r="L38">
         <v>777800</v>
       </c>
@@ -2208,7 +3027,7 @@
       </c>
       <c r="O38" s="5"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -2218,14 +3037,36 @@
       <c r="C39">
         <v>813108.87</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="D39">
+        <f>(C39-B39)</f>
+        <v>-70791.13</v>
+      </c>
+      <c r="E39" s="5">
+        <f>IFERROR(D39/B39,"0")</f>
+        <v>-8.008952370177623E-2</v>
+      </c>
+      <c r="F39">
+        <f>RANK(E39,E:E,1)</f>
+        <v>8</v>
+      </c>
       <c r="G39">
         <v>1294400</v>
       </c>
       <c r="H39">
         <v>1114242.27999999</v>
       </c>
-      <c r="J39" s="5"/>
+      <c r="I39">
+        <f>(H39-G39)</f>
+        <v>-180157.72000000998</v>
+      </c>
+      <c r="J39" s="5">
+        <f>IFERROR(I39/G39, "0")</f>
+        <v>-0.13918241656366656</v>
+      </c>
+      <c r="K39">
+        <f>RANK(J39, J:J)</f>
+        <v>46</v>
+      </c>
       <c r="L39">
         <v>1759500</v>
       </c>
@@ -2234,7 +3075,7 @@
       </c>
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -2244,14 +3085,36 @@
       <c r="C40">
         <v>37565141.859999903</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="D40">
+        <f>(C40-B40)</f>
+        <v>-816758.14000009745</v>
+      </c>
+      <c r="E40" s="5">
+        <f>IFERROR(D40/B40,"0")</f>
+        <v>-2.1279773539092578E-2</v>
+      </c>
+      <c r="F40">
+        <f>RANK(E40,E:E,1)</f>
+        <v>23</v>
+      </c>
       <c r="G40">
         <v>39964900</v>
       </c>
       <c r="H40">
         <v>38095240.189999901</v>
       </c>
-      <c r="J40" s="5"/>
+      <c r="I40">
+        <f>(H40-G40)</f>
+        <v>-1869659.8100000992</v>
+      </c>
+      <c r="J40" s="5">
+        <f>IFERROR(I40/G40, "0")</f>
+        <v>-4.6782546934937892E-2</v>
+      </c>
+      <c r="K40">
+        <f>RANK(J40, J:J)</f>
+        <v>27</v>
+      </c>
       <c r="L40">
         <v>40216700</v>
       </c>
@@ -2260,7 +3123,7 @@
       </c>
       <c r="O40" s="5"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -2270,14 +3133,36 @@
       <c r="C41">
         <v>4409060.2099999897</v>
       </c>
-      <c r="E41" s="5"/>
+      <c r="D41">
+        <f>(C41-B41)</f>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="E41" s="5">
+        <f>IFERROR(D41/B41,"0")</f>
+        <v>-4.0110550149132493E-2</v>
+      </c>
+      <c r="F41">
+        <f>RANK(E41,E:E,1)</f>
+        <v>17</v>
+      </c>
       <c r="G41">
         <v>5089500</v>
       </c>
       <c r="H41">
         <v>4956043.6699999897</v>
       </c>
-      <c r="J41" s="5"/>
+      <c r="I41">
+        <f>(H41-G41)</f>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="J41" s="5">
+        <f>IFERROR(I41/G41, "0")</f>
+        <v>-2.6221894095689226E-2</v>
+      </c>
+      <c r="K41">
+        <f>RANK(J41, J:J)</f>
+        <v>15</v>
+      </c>
       <c r="L41">
         <v>4799900</v>
       </c>
@@ -2286,7 +3171,7 @@
       </c>
       <c r="O41" s="5"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -2296,14 +3181,36 @@
       <c r="C42">
         <v>188551675.67999899</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="D42">
+        <f>(C42-B42)</f>
+        <v>-41624.320001006126</v>
+      </c>
+      <c r="E42" s="5">
+        <f>IFERROR(D42/B42,"0")</f>
+        <v>-2.2070943135841053E-4</v>
+      </c>
+      <c r="F42">
+        <f>RANK(E42,E:E,1)</f>
+        <v>44</v>
+      </c>
       <c r="G42">
         <v>199130300</v>
       </c>
       <c r="H42">
         <v>196755033.31</v>
       </c>
-      <c r="J42" s="5"/>
+      <c r="I42">
+        <f>(H42-G42)</f>
+        <v>-2375266.6899999976</v>
+      </c>
+      <c r="J42" s="5">
+        <f>IFERROR(I42/G42, "0")</f>
+        <v>-1.1928203241796942E-2</v>
+      </c>
+      <c r="K42">
+        <f>RANK(J42, J:J)</f>
+        <v>10</v>
+      </c>
       <c r="L42">
         <v>199954600</v>
       </c>
@@ -2312,7 +3219,7 @@
       </c>
       <c r="O42" s="5"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -2322,14 +3229,36 @@
       <c r="C43">
         <v>7968645.8300000001</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="D43">
+        <f>(C43-B43)</f>
+        <v>-166754.16999999993</v>
+      </c>
+      <c r="E43" s="5">
+        <f>IFERROR(D43/B43,"0")</f>
+        <v>-2.0497353541313264E-2</v>
+      </c>
+      <c r="F43">
+        <f>RANK(E43,E:E,1)</f>
+        <v>24</v>
+      </c>
       <c r="G43">
         <v>8560800</v>
       </c>
       <c r="H43">
         <v>8171472.0199999996</v>
       </c>
-      <c r="J43" s="5"/>
+      <c r="I43">
+        <f>(H43-G43)</f>
+        <v>-389327.98000000045</v>
+      </c>
+      <c r="J43" s="5">
+        <f>IFERROR(I43/G43, "0")</f>
+        <v>-4.5477990374731388E-2</v>
+      </c>
+      <c r="K43">
+        <f>RANK(J43, J:J)</f>
+        <v>26</v>
+      </c>
       <c r="L43">
         <v>8497500</v>
       </c>
@@ -2338,7 +3267,7 @@
       </c>
       <c r="O43" s="5"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -2348,14 +3277,36 @@
       <c r="C44">
         <v>29789104.379999999</v>
       </c>
-      <c r="E44" s="5"/>
+      <c r="D44">
+        <f>(C44-B44)</f>
+        <v>-294095.62000000104</v>
+      </c>
+      <c r="E44" s="5">
+        <f>IFERROR(D44/B44,"0")</f>
+        <v>-9.7760750186150751E-3</v>
+      </c>
+      <c r="F44">
+        <f>RANK(E44,E:E,1)</f>
+        <v>39</v>
+      </c>
       <c r="G44">
         <v>31040700</v>
       </c>
       <c r="H44">
         <v>30793711.48</v>
       </c>
-      <c r="J44" s="5"/>
+      <c r="I44">
+        <f>(H44-G44)</f>
+        <v>-246988.51999999955</v>
+      </c>
+      <c r="J44" s="5">
+        <f>IFERROR(I44/G44, "0")</f>
+        <v>-7.9569249404813532E-3</v>
+      </c>
+      <c r="K44">
+        <f>RANK(J44, J:J)</f>
+        <v>8</v>
+      </c>
       <c r="L44">
         <v>31282200</v>
       </c>
@@ -2364,7 +3315,7 @@
       </c>
       <c r="O44" s="5"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -2374,14 +3325,36 @@
       <c r="C45">
         <v>54589584.0499999</v>
       </c>
-      <c r="E45" s="5"/>
+      <c r="D45">
+        <f>(C45-B45)</f>
+        <v>-712015.95000009984</v>
+      </c>
+      <c r="E45" s="5">
+        <f>IFERROR(D45/B45,"0")</f>
+        <v>-1.287514194887851E-2</v>
+      </c>
+      <c r="F45">
+        <f>RANK(E45,E:E,1)</f>
+        <v>34</v>
+      </c>
       <c r="G45">
         <v>56792200</v>
       </c>
       <c r="H45">
         <v>54594953.959999897</v>
       </c>
-      <c r="J45" s="5"/>
+      <c r="I45">
+        <f>(H45-G45)</f>
+        <v>-2197246.0400001034</v>
+      </c>
+      <c r="J45" s="5">
+        <f>IFERROR(I45/G45, "0")</f>
+        <v>-3.8689222111488959E-2</v>
+      </c>
+      <c r="K45">
+        <f>RANK(J45, J:J)</f>
+        <v>19</v>
+      </c>
       <c r="L45">
         <v>56027100</v>
       </c>
@@ -2390,7 +3363,7 @@
       </c>
       <c r="O45" s="5"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -2400,14 +3373,36 @@
       <c r="C46">
         <v>258322.43</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="D46">
+        <f>(C46-B46)</f>
+        <v>-777.57000000000698</v>
+      </c>
+      <c r="E46" s="5">
+        <f>IFERROR(D46/B46,"0")</f>
+        <v>-3.0010420686993711E-3</v>
+      </c>
+      <c r="F46">
+        <f>RANK(E46,E:E,1)</f>
+        <v>43</v>
+      </c>
       <c r="G46">
         <v>266000</v>
       </c>
       <c r="H46">
         <v>257402.90999999901</v>
       </c>
-      <c r="J46" s="5"/>
+      <c r="I46">
+        <f>(H46-G46)</f>
+        <v>-8597.090000000986</v>
+      </c>
+      <c r="J46" s="5">
+        <f>IFERROR(I46/G46, "0")</f>
+        <v>-3.2319887218048821E-2</v>
+      </c>
+      <c r="K46">
+        <f>RANK(J46, J:J)</f>
+        <v>16</v>
+      </c>
       <c r="L46">
         <v>267100</v>
       </c>
@@ -2416,7 +3411,7 @@
       </c>
       <c r="O46" s="5"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -2426,14 +3421,36 @@
       <c r="C47">
         <v>70378426.719999999</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="D47">
+        <f>(C47-B47)</f>
+        <v>-12273.280000001192</v>
+      </c>
+      <c r="E47" s="5">
+        <f>IFERROR(D47/B47,"0")</f>
+        <v>-1.7435939690898361E-4</v>
+      </c>
+      <c r="F47">
+        <f>RANK(E47,E:E,1)</f>
+        <v>45</v>
+      </c>
       <c r="G47">
         <v>73467000</v>
       </c>
       <c r="H47">
         <v>73442541.659999996</v>
       </c>
-      <c r="J47" s="5"/>
+      <c r="I47">
+        <f>(H47-G47)</f>
+        <v>-24458.340000003576</v>
+      </c>
+      <c r="J47" s="5">
+        <f>IFERROR(I47/G47, "0")</f>
+        <v>-3.3291600310348285E-4</v>
+      </c>
+      <c r="K47">
+        <f>RANK(J47, J:J)</f>
+        <v>4</v>
+      </c>
       <c r="L47">
         <v>75072800</v>
       </c>
@@ -2442,7 +3459,7 @@
       </c>
       <c r="O47" s="5"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -2452,14 +3469,36 @@
       <c r="C48">
         <v>6527352.5699999901</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="D48">
+        <f>(C48-B48)</f>
+        <v>-209747.43000000995</v>
+      </c>
+      <c r="E48" s="5">
+        <f>IFERROR(D48/B48,"0")</f>
+        <v>-3.1133192323107857E-2</v>
+      </c>
+      <c r="F48">
+        <f>RANK(E48,E:E,1)</f>
+        <v>20</v>
+      </c>
       <c r="G48">
         <v>7214700</v>
       </c>
       <c r="H48">
         <v>6922072.5599999996</v>
       </c>
-      <c r="J48" s="5"/>
+      <c r="I48">
+        <f>(H48-G48)</f>
+        <v>-292627.44000000041</v>
+      </c>
+      <c r="J48" s="5">
+        <f>IFERROR(I48/G48, "0")</f>
+        <v>-4.0559890224125802E-2</v>
+      </c>
+      <c r="K48">
+        <f>RANK(J48, J:J)</f>
+        <v>20</v>
+      </c>
       <c r="L48">
         <v>7289800</v>
       </c>
@@ -2468,7 +3507,7 @@
       </c>
       <c r="O48" s="5"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -2478,14 +3517,36 @@
       <c r="C49">
         <v>90499.43</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="D49">
+        <f>(C49-B49)</f>
+        <v>-1700.570000000007</v>
+      </c>
+      <c r="E49" s="5">
+        <f>IFERROR(D49/B49,"0")</f>
+        <v>-1.8444360086767971E-2</v>
+      </c>
+      <c r="F49">
+        <f>RANK(E49,E:E,1)</f>
+        <v>27</v>
+      </c>
       <c r="G49">
         <v>102600</v>
       </c>
       <c r="H49">
         <v>95466.880000000005</v>
       </c>
-      <c r="J49" s="5"/>
+      <c r="I49">
+        <f>(H49-G49)</f>
+        <v>-7133.1199999999953</v>
+      </c>
+      <c r="J49" s="5">
+        <f>IFERROR(I49/G49, "0")</f>
+        <v>-6.9523586744639335E-2</v>
+      </c>
+      <c r="K49">
+        <f>RANK(J49, J:J)</f>
+        <v>36</v>
+      </c>
       <c r="L49">
         <v>0</v>
       </c>
@@ -2494,7 +3555,7 @@
       </c>
       <c r="O49" s="5"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -2504,14 +3565,36 @@
       <c r="C50">
         <v>832600</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="D50">
+        <f>(C50-B50)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="5">
+        <f>IFERROR(D50/B50,"0")</f>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f>RANK(E50,E:E,1)</f>
+        <v>47</v>
+      </c>
       <c r="G50">
         <v>859100</v>
       </c>
       <c r="H50">
         <v>859100</v>
       </c>
-      <c r="J50" s="5"/>
+      <c r="I50">
+        <f>(H50-G50)</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <f>IFERROR(I50/G50, "0")</f>
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <f>RANK(J50, J:J)</f>
+        <v>1</v>
+      </c>
       <c r="L50">
         <v>843200</v>
       </c>
@@ -2520,7 +3603,7 @@
       </c>
       <c r="O50" s="5"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -2530,14 +3613,36 @@
       <c r="C51">
         <v>8499425.3399999905</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="D51">
+        <f>(C51-B51)</f>
+        <v>-110074.66000000946</v>
+      </c>
+      <c r="E51" s="5">
+        <f>IFERROR(D51/B51,"0")</f>
+        <v>-1.2785255822058129E-2</v>
+      </c>
+      <c r="F51">
+        <f>RANK(E51,E:E,1)</f>
+        <v>35</v>
+      </c>
       <c r="G51">
         <v>8925500</v>
       </c>
       <c r="H51">
         <v>8599059.6199999992</v>
       </c>
-      <c r="J51" s="5"/>
+      <c r="I51">
+        <f>(H51-G51)</f>
+        <v>-326440.38000000082</v>
+      </c>
+      <c r="J51" s="5">
+        <f>IFERROR(I51/G51, "0")</f>
+        <v>-3.6573903982970231E-2</v>
+      </c>
+      <c r="K51">
+        <f>RANK(J51, J:J)</f>
+        <v>18</v>
+      </c>
       <c r="L51">
         <v>8833900</v>
       </c>
@@ -2546,7 +3651,7 @@
       </c>
       <c r="O51" s="5"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -2556,14 +3661,36 @@
       <c r="C52">
         <v>2254684.7999999998</v>
       </c>
-      <c r="E52" s="5"/>
+      <c r="D52">
+        <f>(C52-B52)</f>
+        <v>-196315.20000000019</v>
+      </c>
+      <c r="E52" s="5">
+        <f>IFERROR(D52/B52,"0")</f>
+        <v>-8.009596083231342E-2</v>
+      </c>
+      <c r="F52">
+        <f>RANK(E52,E:E,1)</f>
+        <v>7</v>
+      </c>
       <c r="G52">
         <v>2440700</v>
       </c>
       <c r="H52">
         <v>2204672.88</v>
       </c>
-      <c r="J52" s="5"/>
+      <c r="I52">
+        <f>(H52-G52)</f>
+        <v>-236027.12000000011</v>
+      </c>
+      <c r="J52" s="5">
+        <f>IFERROR(I52/G52, "0")</f>
+        <v>-9.6704683082722218E-2</v>
+      </c>
+      <c r="K52">
+        <f>RANK(J52, J:J)</f>
+        <v>40</v>
+      </c>
       <c r="L52">
         <v>2321600</v>
       </c>
@@ -2572,12 +3699,12 @@
       </c>
       <c r="O52" s="5"/>
     </row>
-    <row r="54" spans="1:15" ht="15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -2591,42 +3718,90 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="B56">
+        <f>VLOOKUP(A56,A$1:O$52,4,FALSE)</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C56">
+        <f>VLOOKUP(A56,$A$1:$P$52,9,FALSE)</f>
+        <v>-27292.159999999974</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="B57">
+        <f t="shared" ref="B57:B61" si="0">VLOOKUP(A57,A$1:O$52,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f>VLOOKUP(A57,A$1:$P$52,9,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ref="C57:C61" si="1">VLOOKUP(A58,A$1:P$52,9,FALSE)</f>
+        <v>-189254.06000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>-45485.580000000075</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="61" spans="1:15">
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>-8005.7900000010268</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" ht="15">
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>-133456.33000001032</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -2640,43 +3815,90 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="15">
+      <c r="B65">
+        <f>_xlfn.XLOOKUP(A65,A$1:A$52,D$1:D$52)</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C65">
+        <f>_xlfn.XLOOKUP(A65,A$1:A$52,I$1:I$52)</f>
+        <v>-27292.159999999974</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15">
+      <c r="B66">
+        <f>_xlfn.XLOOKUP(A66,A$2:A$52,D$2:D$52)</f>
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:C70" si="2">_xlfn.XLOOKUP(A66,A$1:A$52,I$1:I$52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="B67">
+        <f t="shared" ref="B66:B70" si="3">_xlfn.XLOOKUP(A67,A$1:A$52,D$1:D$52)</f>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="2"/>
+        <v>-189254.06000000006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="B68">
+        <f t="shared" si="3"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="2"/>
+        <v>-45485.580000000075</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="B69">
+        <f t="shared" si="3"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="2"/>
+        <v>-8005.7900000010268</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="15"/>
-    <row r="72" spans="1:4" ht="15">
+      <c r="B70">
+        <f t="shared" si="3"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="2"/>
+        <v>-133456.33000001032</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -2690,48 +3912,95 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="15">
+      <c r="B74">
+        <f>INDEX($D$2:$D$52, MATCH(A74,$A$2:$A$52, 0))</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C74">
+        <f>INDEX($I$2:$I$52, MATCH(A74, $A$2:$A$52))</f>
+        <v>-27292.159999999974</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="B75">
+        <f t="shared" ref="B75:B79" si="4">INDEX($D$2:$D$52, MATCH(A75,$A$2:$A$52, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ref="C75:C79" si="5">INDEX($I$2:$I$52, MATCH(A75, $A$2:$A$52))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="B76">
+        <f t="shared" si="4"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="5"/>
+        <v>-189254.06000000006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="B77">
+        <f t="shared" si="4"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="5"/>
+        <v>-45485.580000000075</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="B78">
+        <f t="shared" si="4"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="5"/>
+        <v>-8005.7900000010268</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="15"/>
-    <row r="81" spans="1:7" ht="15">
+      <c r="B79">
+        <f t="shared" si="4"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="5"/>
+        <v>-133456.33000001032</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
         <v>71</v>
       </c>
@@ -2739,34 +4008,33 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>73</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>74</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>75</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
     </row>
-    <row r="87" spans="1:7" ht="15"/>
-    <row r="88" spans="1:7" ht="15">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>77</v>
       </c>
@@ -2782,7 +4050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>0</v>
       </c>
@@ -2802,7 +4070,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>73</v>
       </c>
@@ -2810,7 +4078,7 @@
       <c r="E91" s="5"/>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>74</v>
       </c>
@@ -2818,7 +4086,7 @@
       <c r="E92" s="5"/>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>75</v>
       </c>
@@ -2826,12 +4094,12 @@
       <c r="E93" s="5"/>
       <c r="G93" s="5"/>
     </row>
-    <row r="95" spans="1:7" ht="15">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>77</v>
       </c>
@@ -2847,7 +4115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>0</v>
       </c>
@@ -2867,7 +4135,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>73</v>
       </c>
@@ -2876,7 +4144,7 @@
       <c r="G98" s="4"/>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>74</v>
       </c>
@@ -2885,7 +4153,7 @@
       <c r="G99" s="4"/>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>75</v>
       </c>
@@ -2894,13 +4162,8 @@
       <c r="G100" s="4"/>
       <c r="I100" s="4"/>
     </row>
-    <row r="102" spans="1:9" ht="15"/>
-    <row r="103" spans="1:9" ht="15"/>
-    <row r="104" spans="1:9" ht="15"/>
-    <row r="105" spans="1:9" ht="15"/>
-    <row r="106" spans="1:9" ht="15"/>
-    <row r="107" spans="1:9" ht="15"/>
   </sheetData>
+  <autoFilter ref="A1:P52" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
       <formula1>$A$2:$A$52</formula1>
@@ -2919,13 +4182,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2933,7 +4196,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2941,7 +4204,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2949,7 +4212,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2957,7 +4220,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2965,7 +4228,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2973,7 +4236,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -2981,7 +4244,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -2989,7 +4252,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -2997,7 +4260,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1bb86313f1be7b60/Documents/DA13/Excel/lookups-exercise-Ebukacyril996/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7C883A7-9627-4DE3-BEC2-F91FFE6A3BBF}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDBC9CD7-2B53-4F29-BE64-C1F57410CAA6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
   <si>
     <t>Department</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>Actual spending amount - budget amount for fiscal year 2019</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1187,7 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1262,15 +1265,15 @@
         <v>341243679.13</v>
       </c>
       <c r="D2">
-        <f>(C2-B2)</f>
+        <f t="shared" ref="D2:D33" si="0">(C2-B2)</f>
         <v>-15396420.870000005</v>
       </c>
       <c r="E2" s="5">
-        <f>IFERROR(D2/B2,"0")</f>
+        <f t="shared" ref="E2:E33" si="1">IFERROR(D2/B2,"0")</f>
         <v>-4.3170750765267295E-2</v>
       </c>
       <c r="F2">
-        <f>RANK(E2,E:E,1)</f>
+        <f t="shared" ref="F2:F33" si="2">RANK(E2,E:E,1)</f>
         <v>14</v>
       </c>
       <c r="G2">
@@ -1280,15 +1283,15 @@
         <v>346340810.81999999</v>
       </c>
       <c r="I2">
-        <f>(H2-G2)</f>
+        <f t="shared" ref="I2:I33" si="3">(H2-G2)</f>
         <v>-36344389.180000007</v>
       </c>
       <c r="J2" s="5">
-        <f>IFERROR(I2/G2, "0")</f>
+        <f t="shared" ref="J2:J33" si="4">IFERROR(I2/G2, "0")</f>
         <v>-9.4972027086493035E-2</v>
       </c>
       <c r="K2">
-        <f>RANK(J2, J:J)</f>
+        <f t="shared" ref="K2:K33" si="5">RANK(J2, J:J)</f>
         <v>39</v>
       </c>
       <c r="L2">
@@ -1310,15 +1313,15 @@
         <v>321214.59000000003</v>
       </c>
       <c r="D3">
-        <f>(C3-B3)</f>
+        <f t="shared" si="0"/>
         <v>-7585.4099999999744</v>
       </c>
       <c r="E3" s="5">
-        <f>IFERROR(D3/B3,"0")</f>
+        <f t="shared" si="1"/>
         <v>-2.3069981751824741E-2</v>
       </c>
       <c r="F3">
-        <f>RANK(E3,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="G3">
@@ -1328,15 +1331,15 @@
         <v>312433.70999999897</v>
       </c>
       <c r="I3">
-        <f>(H3-G3)</f>
+        <f t="shared" si="3"/>
         <v>-22366.290000001027</v>
       </c>
       <c r="J3" s="5">
-        <f>IFERROR(I3/G3, "0")</f>
+        <f t="shared" si="4"/>
         <v>-6.6804928315415249E-2</v>
       </c>
       <c r="K3">
-        <f>RANK(J3, J:J)</f>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="L3">
@@ -1358,15 +1361,15 @@
         <v>3115157.5599999898</v>
       </c>
       <c r="D4">
-        <f>(C4-B4)</f>
+        <f t="shared" si="0"/>
         <v>-15442.440000010189</v>
       </c>
       <c r="E4" s="5">
-        <f>IFERROR(D4/B4,"0")</f>
+        <f t="shared" si="1"/>
         <v>-4.9327413275443007E-3</v>
       </c>
       <c r="F4">
-        <f>RANK(E4,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="G4">
@@ -1376,15 +1379,15 @@
         <v>3589693.2099999902</v>
       </c>
       <c r="I4">
-        <f>(H4-G4)</f>
+        <f t="shared" si="3"/>
         <v>-62606.790000009816</v>
       </c>
       <c r="J4" s="5">
-        <f>IFERROR(I4/G4, "0")</f>
+        <f t="shared" si="4"/>
         <v>-1.7141743558856015E-2</v>
       </c>
       <c r="K4">
-        <f>RANK(J4, J:J)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="L4">
@@ -1406,15 +1409,15 @@
         <v>6947552.6699999999</v>
       </c>
       <c r="D5">
-        <f>(C5-B5)</f>
+        <f t="shared" si="0"/>
         <v>-723147.33000000007</v>
       </c>
       <c r="E5" s="5">
-        <f>IFERROR(D5/B5,"0")</f>
+        <f t="shared" si="1"/>
         <v>-9.4273968477453174E-2</v>
       </c>
       <c r="F5">
-        <f>RANK(E5,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G5">
@@ -1424,15 +1427,15 @@
         <v>7020609.3200000003</v>
       </c>
       <c r="I5">
-        <f>(H5-G5)</f>
+        <f t="shared" si="3"/>
         <v>-947690.6799999997</v>
       </c>
       <c r="J5" s="5">
-        <f>IFERROR(I5/G5, "0")</f>
+        <f t="shared" si="4"/>
         <v>-0.118932605449092</v>
       </c>
       <c r="K5">
-        <f>RANK(J5, J:J)</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="L5">
@@ -1454,15 +1457,15 @@
         <v>385908.52</v>
       </c>
       <c r="D6">
-        <f>(C6-B6)</f>
+        <f t="shared" si="0"/>
         <v>-23391.479999999981</v>
       </c>
       <c r="E6" s="5">
-        <f>IFERROR(D6/B6,"0")</f>
+        <f t="shared" si="1"/>
         <v>-5.7149963352064452E-2</v>
       </c>
       <c r="F6">
-        <f>RANK(E6,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="G6">
@@ -1472,15 +1475,15 @@
         <v>427758.64</v>
       </c>
       <c r="I6">
-        <f>(H6-G6)</f>
+        <f t="shared" si="3"/>
         <v>-741.35999999998603</v>
       </c>
       <c r="J6" s="5">
-        <f>IFERROR(I6/G6, "0")</f>
+        <f t="shared" si="4"/>
         <v>-1.7301283547257551E-3</v>
       </c>
       <c r="K6">
-        <f>RANK(J6, J:J)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="L6">
@@ -1502,15 +1505,15 @@
         <v>2946071.21</v>
       </c>
       <c r="D7">
-        <f>(C7-B7)</f>
+        <f t="shared" si="0"/>
         <v>-382928.79000000004</v>
       </c>
       <c r="E7" s="5">
-        <f>IFERROR(D7/B7,"0")</f>
+        <f t="shared" si="1"/>
         <v>-0.11502817362571344</v>
       </c>
       <c r="F7">
-        <f>RANK(E7,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G7">
@@ -1520,15 +1523,15 @@
         <v>3051483.41</v>
       </c>
       <c r="I7">
-        <f>(H7-G7)</f>
+        <f t="shared" si="3"/>
         <v>-339416.58999999985</v>
       </c>
       <c r="J7" s="5">
-        <f>IFERROR(I7/G7, "0")</f>
+        <f t="shared" si="4"/>
         <v>-0.10009631366303927</v>
       </c>
       <c r="K7">
-        <f>RANK(J7, J:J)</f>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="L7">
@@ -1550,15 +1553,15 @@
         <v>1315623.30999999</v>
       </c>
       <c r="D8">
-        <f>(C8-B8)</f>
+        <f t="shared" si="0"/>
         <v>-236476.69000000996</v>
       </c>
       <c r="E8" s="5">
-        <f>IFERROR(D8/B8,"0")</f>
+        <f t="shared" si="1"/>
         <v>-0.15235918433091292</v>
       </c>
       <c r="F8">
-        <f>RANK(E8,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G8">
@@ -1568,15 +1571,15 @@
         <v>1383905.98999999</v>
       </c>
       <c r="I8">
-        <f>(H8-G8)</f>
+        <f t="shared" si="3"/>
         <v>-206794.01000001002</v>
       </c>
       <c r="J8" s="5">
-        <f>IFERROR(I8/G8, "0")</f>
+        <f t="shared" si="4"/>
         <v>-0.13000189224870184</v>
       </c>
       <c r="K8">
-        <f>RANK(J8, J:J)</f>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="L8">
@@ -1598,15 +1601,15 @@
         <v>8952825.2799999993</v>
       </c>
       <c r="D9">
-        <f>(C9-B9)</f>
+        <f t="shared" si="0"/>
         <v>-396574.72000000067</v>
       </c>
       <c r="E9" s="5">
-        <f>IFERROR(D9/B9,"0")</f>
+        <f t="shared" si="1"/>
         <v>-4.2417130511048909E-2</v>
       </c>
       <c r="F9">
-        <f>RANK(E9,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="G9">
@@ -1616,15 +1619,15 @@
         <v>9929059.5199999996</v>
       </c>
       <c r="I9">
-        <f>(H9-G9)</f>
+        <f t="shared" si="3"/>
         <v>-1144640.4800000004</v>
       </c>
       <c r="J9" s="5">
-        <f>IFERROR(I9/G9, "0")</f>
+        <f t="shared" si="4"/>
         <v>-0.10336567542917005</v>
       </c>
       <c r="K9">
-        <f>RANK(J9, J:J)</f>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="L9">
@@ -1646,15 +1649,15 @@
         <v>407090.37</v>
       </c>
       <c r="D10">
-        <f>(C10-B10)</f>
+        <f t="shared" si="0"/>
         <v>-36209.630000000005</v>
       </c>
       <c r="E10" s="5">
-        <f>IFERROR(D10/B10,"0")</f>
+        <f t="shared" si="1"/>
         <v>-8.1681998646514792E-2</v>
       </c>
       <c r="F10">
-        <f>RANK(E10,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G10">
@@ -1664,15 +1667,15 @@
         <v>467907.84000000003</v>
       </c>
       <c r="I10">
-        <f>(H10-G10)</f>
+        <f t="shared" si="3"/>
         <v>-27292.159999999974</v>
       </c>
       <c r="J10" s="5">
-        <f>IFERROR(I10/G10, "0")</f>
+        <f t="shared" si="4"/>
         <v>-5.5113408723747932E-2</v>
       </c>
       <c r="K10">
-        <f>RANK(J10, J:J)</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="L10">
@@ -1694,15 +1697,15 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <f>(C11-B11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="5" t="str">
-        <f>IFERROR(D11/B11,"0")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>RANK(E11,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="G11">
@@ -1712,15 +1715,15 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <f>(H11-G11)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J11" s="5" t="str">
-        <f>IFERROR(I11/G11, "0")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>RANK(J11, J:J)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L11">
@@ -1742,15 +1745,15 @@
         <v>4066595.33</v>
       </c>
       <c r="D12">
-        <f>(C12-B12)</f>
+        <f t="shared" si="0"/>
         <v>-214304.66999999993</v>
       </c>
       <c r="E12" s="5">
-        <f>IFERROR(D12/B12,"0")</f>
+        <f t="shared" si="1"/>
         <v>-5.0060657805601608E-2</v>
       </c>
       <c r="F12">
-        <f>RANK(E12,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="G12">
@@ -1760,15 +1763,15 @@
         <v>4205555.5999999996</v>
       </c>
       <c r="I12">
-        <f>(H12-G12)</f>
+        <f t="shared" si="3"/>
         <v>-494844.40000000037</v>
       </c>
       <c r="J12" s="5">
-        <f>IFERROR(I12/G12, "0")</f>
+        <f t="shared" si="4"/>
         <v>-0.10527708280146378</v>
       </c>
       <c r="K12">
-        <f>RANK(J12, J:J)</f>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="L12">
@@ -1790,15 +1793,15 @@
         <v>5772288.3300000001</v>
       </c>
       <c r="D13">
-        <f>(C13-B13)</f>
+        <f t="shared" si="0"/>
         <v>-75511.669999999925</v>
       </c>
       <c r="E13" s="5">
-        <f>IFERROR(D13/B13,"0")</f>
+        <f t="shared" si="1"/>
         <v>-1.2912833886247806E-2</v>
       </c>
       <c r="F13">
-        <f>RANK(E13,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="G13">
@@ -1808,15 +1811,15 @@
         <v>5909077.9399999902</v>
       </c>
       <c r="I13">
-        <f>(H13-G13)</f>
+        <f t="shared" si="3"/>
         <v>-314622.06000000983</v>
       </c>
       <c r="J13" s="5">
-        <f>IFERROR(I13/G13, "0")</f>
+        <f t="shared" si="4"/>
         <v>-5.0552253482656594E-2</v>
       </c>
       <c r="K13">
-        <f>RANK(J13, J:J)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="L13">
@@ -1838,15 +1841,15 @@
         <v>505017.37</v>
       </c>
       <c r="D14">
-        <f>(C14-B14)</f>
+        <f t="shared" si="0"/>
         <v>-6982.6300000000047</v>
       </c>
       <c r="E14" s="5">
-        <f>IFERROR(D14/B14,"0")</f>
+        <f t="shared" si="1"/>
         <v>-1.3637949218750009E-2</v>
       </c>
       <c r="F14">
-        <f>RANK(E14,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="G14">
@@ -1856,15 +1859,15 @@
         <v>524402.98</v>
       </c>
       <c r="I14">
-        <f>(H14-G14)</f>
+        <f t="shared" si="3"/>
         <v>-6097.0200000000186</v>
       </c>
       <c r="J14" s="5">
-        <f>IFERROR(I14/G14, "0")</f>
+        <f t="shared" si="4"/>
         <v>-1.1492968897266765E-2</v>
       </c>
       <c r="K14">
-        <f>RANK(J14, J:J)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="L14">
@@ -1886,15 +1889,15 @@
         <v>156545919.90000001</v>
       </c>
       <c r="D15">
-        <f>(C15-B15)</f>
+        <f t="shared" si="0"/>
         <v>496819.90000000596</v>
       </c>
       <c r="E15" s="5">
-        <f>IFERROR(D15/B15,"0")</f>
+        <f t="shared" si="1"/>
         <v>3.1837408866824991E-3</v>
       </c>
       <c r="F15">
-        <f>RANK(E15,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="G15">
@@ -1904,15 +1907,15 @@
         <v>175966389.24999899</v>
       </c>
       <c r="I15">
-        <f>(H15-G15)</f>
+        <f t="shared" si="3"/>
         <v>-8201410.7500010133</v>
       </c>
       <c r="J15" s="5">
-        <f>IFERROR(I15/G15, "0")</f>
+        <f t="shared" si="4"/>
         <v>-4.4532273014072019E-2</v>
       </c>
       <c r="K15">
-        <f>RANK(J15, J:J)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="L15">
@@ -1934,15 +1937,15 @@
         <v>6522480.4599999897</v>
       </c>
       <c r="D16">
-        <f>(C16-B16)</f>
+        <f t="shared" si="0"/>
         <v>-78219.540000010282</v>
       </c>
       <c r="E16" s="5">
-        <f>IFERROR(D16/B16,"0")</f>
+        <f t="shared" si="1"/>
         <v>-1.1850188616360429E-2</v>
       </c>
       <c r="F16">
-        <f>RANK(E16,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="G16">
@@ -1952,15 +1955,15 @@
         <v>7350464.0800000001</v>
       </c>
       <c r="I16">
-        <f>(H16-G16)</f>
+        <f t="shared" si="3"/>
         <v>-2035.9199999999255</v>
       </c>
       <c r="J16" s="5">
-        <f>IFERROR(I16/G16, "0")</f>
+        <f t="shared" si="4"/>
         <v>-2.769017341040361E-4</v>
       </c>
       <c r="K16">
-        <f>RANK(J16, J:J)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="L16">
@@ -1982,15 +1985,15 @@
         <v>14439480.050000001</v>
       </c>
       <c r="D17">
-        <f>(C17-B17)</f>
+        <f t="shared" si="0"/>
         <v>-421319.94999999925</v>
       </c>
       <c r="E17" s="5">
-        <f>IFERROR(D17/B17,"0")</f>
+        <f t="shared" si="1"/>
         <v>-2.8351094826658003E-2</v>
       </c>
       <c r="F17">
-        <f>RANK(E17,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="G17">
@@ -2000,15 +2003,15 @@
         <v>14645233.51</v>
       </c>
       <c r="I17">
-        <f>(H17-G17)</f>
+        <f t="shared" si="3"/>
         <v>-664466.49000000022</v>
       </c>
       <c r="J17" s="5">
-        <f>IFERROR(I17/G17, "0")</f>
+        <f t="shared" si="4"/>
         <v>-4.3401666263871937E-2</v>
       </c>
       <c r="K17">
-        <f>RANK(J17, J:J)</f>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="L17">
@@ -2030,15 +2033,15 @@
         <v>2615303.8999999901</v>
       </c>
       <c r="D18">
-        <f>(C18-B18)</f>
+        <f t="shared" si="0"/>
         <v>-149396.10000000987</v>
       </c>
       <c r="E18" s="5">
-        <f>IFERROR(D18/B18,"0")</f>
+        <f t="shared" si="1"/>
         <v>-5.4037002206391245E-2</v>
       </c>
       <c r="F18">
-        <f>RANK(E18,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G18">
@@ -2048,15 +2051,15 @@
         <v>2671745.94</v>
       </c>
       <c r="I18">
-        <f>(H18-G18)</f>
+        <f t="shared" si="3"/>
         <v>-189254.06000000006</v>
       </c>
       <c r="J18" s="5">
-        <f>IFERROR(I18/G18, "0")</f>
+        <f t="shared" si="4"/>
         <v>-6.6149619014330668E-2</v>
       </c>
       <c r="K18">
-        <f>RANK(J18, J:J)</f>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="L18">
@@ -2078,15 +2081,15 @@
         <v>8460963.1999999899</v>
       </c>
       <c r="D19">
-        <f>(C19-B19)</f>
+        <f t="shared" si="0"/>
         <v>-376336.80000001006</v>
       </c>
       <c r="E19" s="5">
-        <f>IFERROR(D19/B19,"0")</f>
+        <f t="shared" si="1"/>
         <v>-4.258504294298146E-2</v>
       </c>
       <c r="F19">
-        <f>RANK(E19,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="G19">
@@ -2096,15 +2099,15 @@
         <v>8991707.2399999909</v>
       </c>
       <c r="I19">
-        <f>(H19-G19)</f>
+        <f t="shared" si="3"/>
         <v>-721592.76000000909</v>
       </c>
       <c r="J19" s="5">
-        <f>IFERROR(I19/G19, "0")</f>
+        <f t="shared" si="4"/>
         <v>-7.4289145810384635E-2</v>
       </c>
       <c r="K19">
-        <f>RANK(J19, J:J)</f>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="L19">
@@ -2126,15 +2129,15 @@
         <v>124384360.159999</v>
       </c>
       <c r="D20">
-        <f>(C20-B20)</f>
+        <f t="shared" si="0"/>
         <v>-1539.8400010019541</v>
       </c>
       <c r="E20" s="5">
-        <f>IFERROR(D20/B20,"0")</f>
+        <f t="shared" si="1"/>
         <v>-1.2379538203300809E-5</v>
       </c>
       <c r="F20">
-        <f>RANK(E20,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="G20">
@@ -2144,15 +2147,15 @@
         <v>131839624.37</v>
       </c>
       <c r="I20">
-        <f>(H20-G20)</f>
+        <f t="shared" si="3"/>
         <v>-9775.6299999952316</v>
       </c>
       <c r="J20" s="5">
-        <f>IFERROR(I20/G20, "0")</f>
+        <f t="shared" si="4"/>
         <v>-7.4142392760188761E-5</v>
       </c>
       <c r="K20">
-        <f>RANK(J20, J:J)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="L20">
@@ -2174,15 +2177,15 @@
         <v>22408587.5499999</v>
       </c>
       <c r="D21">
-        <f>(C21-B21)</f>
+        <f t="shared" si="0"/>
         <v>-1923512.4500000998</v>
       </c>
       <c r="E21" s="5">
-        <f>IFERROR(D21/B21,"0")</f>
+        <f t="shared" si="1"/>
         <v>-7.9052463618023094E-2</v>
       </c>
       <c r="F21">
-        <f>RANK(E21,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G21">
@@ -2192,15 +2195,15 @@
         <v>22655993.629999999</v>
       </c>
       <c r="I21">
-        <f>(H21-G21)</f>
+        <f t="shared" si="3"/>
         <v>-1841406.370000001</v>
       </c>
       <c r="J21" s="5">
-        <f>IFERROR(I21/G21, "0")</f>
+        <f t="shared" si="4"/>
         <v>-7.5167420624229556E-2</v>
       </c>
       <c r="K21">
-        <f>RANK(J21, J:J)</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="L21">
@@ -2222,15 +2225,15 @@
         <v>11412339.8799999</v>
       </c>
       <c r="D22">
-        <f>(C22-B22)</f>
+        <f t="shared" si="0"/>
         <v>-153660.12000009976</v>
       </c>
       <c r="E22" s="5">
-        <f>IFERROR(D22/B22,"0")</f>
+        <f t="shared" si="1"/>
         <v>-1.3285502334437123E-2</v>
       </c>
       <c r="F22">
-        <f>RANK(E22,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="G22">
@@ -2240,15 +2243,15 @@
         <v>11791977.9699999</v>
       </c>
       <c r="I22">
-        <f>(H22-G22)</f>
+        <f t="shared" si="3"/>
         <v>-188722.03000009991</v>
       </c>
       <c r="J22" s="5">
-        <f>IFERROR(I22/G22, "0")</f>
+        <f t="shared" si="4"/>
         <v>-1.5752170574348738E-2</v>
       </c>
       <c r="K22">
-        <f>RANK(J22, J:J)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="L22">
@@ -2270,15 +2273,15 @@
         <v>20036743.4099999</v>
       </c>
       <c r="D23">
-        <f>(C23-B23)</f>
+        <f t="shared" si="0"/>
         <v>-825956.59000010043</v>
       </c>
       <c r="E23" s="5">
-        <f>IFERROR(D23/B23,"0")</f>
+        <f t="shared" si="1"/>
         <v>-3.9590110100806722E-2</v>
       </c>
       <c r="F23">
-        <f>RANK(E23,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="G23">
@@ -2288,15 +2291,15 @@
         <v>21722126.219999898</v>
       </c>
       <c r="I23">
-        <f>(H23-G23)</f>
+        <f t="shared" si="3"/>
         <v>-961673.78000010177</v>
       </c>
       <c r="J23" s="5">
-        <f>IFERROR(I23/G23, "0")</f>
+        <f t="shared" si="4"/>
         <v>-4.2394738976719144E-2</v>
       </c>
       <c r="K23">
-        <f>RANK(J23, J:J)</f>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="L23">
@@ -2318,15 +2321,15 @@
         <v>904969.19</v>
       </c>
       <c r="D24">
-        <f>(C24-B24)</f>
+        <f t="shared" si="0"/>
         <v>-12230.810000000056</v>
       </c>
       <c r="E24" s="5">
-        <f>IFERROR(D24/B24,"0")</f>
+        <f t="shared" si="1"/>
         <v>-1.3334943305713101E-2</v>
       </c>
       <c r="F24">
-        <f>RANK(E24,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="G24">
@@ -2336,15 +2339,15 @@
         <v>1067214.42</v>
       </c>
       <c r="I24">
-        <f>(H24-G24)</f>
+        <f t="shared" si="3"/>
         <v>-45485.580000000075</v>
       </c>
       <c r="J24" s="5">
-        <f>IFERROR(I24/G24, "0")</f>
+        <f t="shared" si="4"/>
         <v>-4.087856565111897E-2</v>
       </c>
       <c r="K24">
-        <f>RANK(J24, J:J)</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="L24">
@@ -2366,15 +2369,15 @@
         <v>479149.53</v>
       </c>
       <c r="D25">
-        <f>(C25-B25)</f>
+        <f t="shared" si="0"/>
         <v>-4950.4699999999721</v>
       </c>
       <c r="E25" s="5">
-        <f>IFERROR(D25/B25,"0")</f>
+        <f t="shared" si="1"/>
         <v>-1.0226130964676661E-2</v>
       </c>
       <c r="F25">
-        <f>RANK(E25,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="G25">
@@ -2384,15 +2387,15 @@
         <v>497194.20999999897</v>
       </c>
       <c r="I25">
-        <f>(H25-G25)</f>
+        <f t="shared" si="3"/>
         <v>-8005.7900000010268</v>
       </c>
       <c r="J25" s="5">
-        <f>IFERROR(I25/G25, "0")</f>
+        <f t="shared" si="4"/>
         <v>-1.5846773555029746E-2</v>
       </c>
       <c r="K25">
-        <f>RANK(J25, J:J)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="L25">
@@ -2414,15 +2417,15 @@
         <v>4801960.08</v>
       </c>
       <c r="D26">
-        <f>(C26-B26)</f>
+        <f t="shared" si="0"/>
         <v>-447839.91999999993</v>
       </c>
       <c r="E26" s="5">
-        <f>IFERROR(D26/B26,"0")</f>
+        <f t="shared" si="1"/>
         <v>-8.5306091660634673E-2</v>
       </c>
       <c r="F26">
-        <f>RANK(E26,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G26">
@@ -2432,15 +2435,15 @@
         <v>5122329.02999999</v>
       </c>
       <c r="I26">
-        <f>(H26-G26)</f>
+        <f t="shared" si="3"/>
         <v>-319870.97000000998</v>
       </c>
       <c r="J26" s="5">
-        <f>IFERROR(I26/G26, "0")</f>
+        <f t="shared" si="4"/>
         <v>-5.8776040939327839E-2</v>
       </c>
       <c r="K26">
-        <f>RANK(J26, J:J)</f>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="L26">
@@ -2462,15 +2465,15 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <f>(C27-B27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27" s="5" t="str">
-        <f>IFERROR(D27/B27,"0")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F27">
-        <f>RANK(E27,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="G27">
@@ -2480,15 +2483,15 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <f>(H27-G27)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J27" s="5" t="str">
-        <f>IFERROR(I27/G27, "0")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K27">
-        <f>RANK(J27, J:J)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L27">
@@ -2510,15 +2513,15 @@
         <v>1250442.02</v>
       </c>
       <c r="D28">
-        <f>(C28-B28)</f>
+        <f t="shared" si="0"/>
         <v>-132457.97999999998</v>
       </c>
       <c r="E28" s="5">
-        <f>IFERROR(D28/B28,"0")</f>
+        <f t="shared" si="1"/>
         <v>-9.5782760864849215E-2</v>
       </c>
       <c r="F28">
-        <f>RANK(E28,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G28">
@@ -2528,15 +2531,15 @@
         <v>1281335.23</v>
       </c>
       <c r="I28">
-        <f>(H28-G28)</f>
+        <f t="shared" si="3"/>
         <v>-264364.77</v>
       </c>
       <c r="J28" s="5">
-        <f>IFERROR(I28/G28, "0")</f>
+        <f t="shared" si="4"/>
         <v>-0.17103239309050916</v>
       </c>
       <c r="K28">
-        <f>RANK(J28, J:J)</f>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="L28">
@@ -2558,15 +2561,15 @@
         <v>2523884.71</v>
       </c>
       <c r="D29">
-        <f>(C29-B29)</f>
+        <f t="shared" si="0"/>
         <v>-37915.290000000037</v>
       </c>
       <c r="E29" s="5">
-        <f>IFERROR(D29/B29,"0")</f>
+        <f t="shared" si="1"/>
         <v>-1.4800253727847622E-2</v>
       </c>
       <c r="F29">
-        <f>RANK(E29,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="G29">
@@ -2576,15 +2579,15 @@
         <v>2665264.4399999902</v>
       </c>
       <c r="I29">
-        <f>(H29-G29)</f>
+        <f t="shared" si="3"/>
         <v>-114235.56000000983</v>
       </c>
       <c r="J29" s="5">
-        <f>IFERROR(I29/G29, "0")</f>
+        <f t="shared" si="4"/>
         <v>-4.1099320021590155E-2</v>
       </c>
       <c r="K29">
-        <f>RANK(J29, J:J)</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="L29">
@@ -2606,15 +2609,15 @@
         <v>12030494.1</v>
       </c>
       <c r="D30">
-        <f>(C30-B30)</f>
+        <f t="shared" si="0"/>
         <v>-101705.90000000037</v>
       </c>
       <c r="E30" s="5">
-        <f>IFERROR(D30/B30,"0")</f>
+        <f t="shared" si="1"/>
         <v>-8.3831374359143746E-3</v>
       </c>
       <c r="F30">
-        <f>RANK(E30,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="G30">
@@ -2624,15 +2627,15 @@
         <v>12685514.279999901</v>
       </c>
       <c r="I30">
-        <f>(H30-G30)</f>
+        <f t="shared" si="3"/>
         <v>-50385.720000099391</v>
       </c>
       <c r="J30" s="5">
-        <f>IFERROR(I30/G30, "0")</f>
+        <f t="shared" si="4"/>
         <v>-3.9561962641116366E-3</v>
       </c>
       <c r="K30">
-        <f>RANK(J30, J:J)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="L30">
@@ -2654,15 +2657,15 @@
         <v>1740827.69</v>
       </c>
       <c r="D31">
-        <f>(C31-B31)</f>
+        <f t="shared" si="0"/>
         <v>-24772.310000000056</v>
       </c>
       <c r="E31" s="5">
-        <f>IFERROR(D31/B31,"0")</f>
+        <f t="shared" si="1"/>
         <v>-1.4030533529678329E-2</v>
       </c>
       <c r="F31">
-        <f>RANK(E31,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="G31">
@@ -2672,15 +2675,15 @@
         <v>1762676.85</v>
       </c>
       <c r="I31">
-        <f>(H31-G31)</f>
+        <f t="shared" si="3"/>
         <v>-60623.149999999907</v>
       </c>
       <c r="J31" s="5">
-        <f>IFERROR(I31/G31, "0")</f>
+        <f t="shared" si="4"/>
         <v>-3.3249136181648611E-2</v>
       </c>
       <c r="K31">
-        <f>RANK(J31, J:J)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="L31">
@@ -2702,15 +2705,15 @@
         <v>5925637.7199999904</v>
       </c>
       <c r="D32">
-        <f>(C32-B32)</f>
+        <f t="shared" si="0"/>
         <v>-73762.280000009574</v>
       </c>
       <c r="E32" s="5">
-        <f>IFERROR(D32/B32,"0")</f>
+        <f t="shared" si="1"/>
         <v>-1.2294942827617691E-2</v>
       </c>
       <c r="F32">
-        <f>RANK(E32,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="G32">
@@ -2720,15 +2723,15 @@
         <v>6084985.4699999997</v>
       </c>
       <c r="I32">
-        <f>(H32-G32)</f>
+        <f t="shared" si="3"/>
         <v>-110514.53000000026</v>
       </c>
       <c r="J32" s="5">
-        <f>IFERROR(I32/G32, "0")</f>
+        <f t="shared" si="4"/>
         <v>-1.7837871035428981E-2</v>
       </c>
       <c r="K32">
-        <f>RANK(J32, J:J)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="L32">
@@ -2750,15 +2753,15 @@
         <v>920284264.73000002</v>
       </c>
       <c r="D33">
-        <f>(C33-B33)</f>
+        <f t="shared" si="0"/>
         <v>-7418835.2699990273</v>
       </c>
       <c r="E33" s="5">
-        <f>IFERROR(D33/B33,"0")</f>
+        <f t="shared" si="1"/>
         <v>-7.9969930789269058E-3</v>
       </c>
       <c r="F33">
-        <f>RANK(E33,E:E,1)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="G33">
@@ -2768,15 +2771,15 @@
         <v>977068513.48000002</v>
       </c>
       <c r="I33">
-        <f>(H33-G33)</f>
+        <f t="shared" si="3"/>
         <v>-2602486.5199999809</v>
       </c>
       <c r="J33" s="5">
-        <f>IFERROR(I33/G33, "0")</f>
+        <f t="shared" si="4"/>
         <v>-2.6564903115433454E-3</v>
       </c>
       <c r="K33">
-        <f>RANK(J33, J:J)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="L33">
@@ -2798,15 +2801,15 @@
         <v>4109958.22</v>
       </c>
       <c r="D34">
-        <f>(C34-B34)</f>
+        <f t="shared" ref="D34:D65" si="6">(C34-B34)</f>
         <v>-79341.779999999795</v>
       </c>
       <c r="E34" s="5">
-        <f>IFERROR(D34/B34,"0")</f>
+        <f t="shared" ref="E34:E65" si="7">IFERROR(D34/B34,"0")</f>
         <v>-1.8939149738619768E-2</v>
       </c>
       <c r="F34">
-        <f>RANK(E34,E:E,1)</f>
+        <f t="shared" ref="F34:F65" si="8">RANK(E34,E:E,1)</f>
         <v>26</v>
       </c>
       <c r="G34">
@@ -2816,15 +2819,15 @@
         <v>4137588.7699999898</v>
       </c>
       <c r="I34">
-        <f>(H34-G34)</f>
+        <f t="shared" ref="I34:I65" si="9">(H34-G34)</f>
         <v>-213011.23000001023</v>
       </c>
       <c r="J34" s="5">
-        <f>IFERROR(I34/G34, "0")</f>
+        <f t="shared" ref="J34:J65" si="10">IFERROR(I34/G34, "0")</f>
         <v>-4.8961345561534093E-2</v>
       </c>
       <c r="K34">
-        <f>RANK(J34, J:J)</f>
+        <f t="shared" ref="K34:K65" si="11">RANK(J34, J:J)</f>
         <v>28</v>
       </c>
       <c r="L34">
@@ -2846,15 +2849,15 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <f>(C35-B35)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E35" s="5" t="str">
-        <f>IFERROR(D35/B35,"0")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F35">
-        <f>RANK(E35,E:E,1)</f>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
       <c r="G35">
@@ -2864,15 +2867,15 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <f>(H35-G35)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J35" s="5" t="str">
-        <f>IFERROR(I35/G35, "0")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K35">
-        <f>RANK(J35, J:J)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L35">
@@ -2894,15 +2897,15 @@
         <v>735423.27999999898</v>
       </c>
       <c r="D36">
-        <f>(C36-B36)</f>
+        <f t="shared" si="6"/>
         <v>-62776.72000000102</v>
       </c>
       <c r="E36" s="5">
-        <f>IFERROR(D36/B36,"0")</f>
+        <f t="shared" si="7"/>
         <v>-7.8647857679780775E-2</v>
       </c>
       <c r="F36">
-        <f>RANK(E36,E:E,1)</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="G36">
@@ -2912,15 +2915,15 @@
         <v>740966.94999999902</v>
       </c>
       <c r="I36">
-        <f>(H36-G36)</f>
+        <f t="shared" si="9"/>
         <v>-157733.05000000098</v>
       </c>
       <c r="J36" s="5">
-        <f>IFERROR(I36/G36, "0")</f>
+        <f t="shared" si="10"/>
         <v>-0.17551246244575608</v>
       </c>
       <c r="K36">
-        <f>RANK(J36, J:J)</f>
+        <f t="shared" si="11"/>
         <v>48</v>
       </c>
       <c r="L36">
@@ -2942,15 +2945,15 @@
         <v>2005447.73999999</v>
       </c>
       <c r="D37">
-        <f>(C37-B37)</f>
+        <f t="shared" si="6"/>
         <v>-82352.260000010021</v>
       </c>
       <c r="E37" s="5">
-        <f>IFERROR(D37/B37,"0")</f>
+        <f t="shared" si="7"/>
         <v>-3.9444515758219188E-2</v>
       </c>
       <c r="F37">
-        <f>RANK(E37,E:E,1)</f>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="G37">
@@ -2960,15 +2963,15 @@
         <v>2118943.21</v>
       </c>
       <c r="I37">
-        <f>(H37-G37)</f>
+        <f t="shared" si="9"/>
         <v>-110256.79000000004</v>
       </c>
       <c r="J37" s="5">
-        <f>IFERROR(I37/G37, "0")</f>
+        <f t="shared" si="10"/>
         <v>-4.9460250314014013E-2</v>
       </c>
       <c r="K37">
-        <f>RANK(J37, J:J)</f>
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
       <c r="L37">
@@ -2990,15 +2993,15 @@
         <v>838669.82</v>
       </c>
       <c r="D38">
-        <f>(C38-B38)</f>
+        <f t="shared" si="6"/>
         <v>-16630.180000000051</v>
       </c>
       <c r="E38" s="5">
-        <f>IFERROR(D38/B38,"0")</f>
+        <f t="shared" si="7"/>
         <v>-1.9443680579913542E-2</v>
       </c>
       <c r="F38">
-        <f>RANK(E38,E:E,1)</f>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="G38">
@@ -3008,15 +3011,15 @@
         <v>753451.96</v>
       </c>
       <c r="I38">
-        <f>(H38-G38)</f>
+        <f t="shared" si="9"/>
         <v>-39348.040000000037</v>
       </c>
       <c r="J38" s="5">
-        <f>IFERROR(I38/G38, "0")</f>
+        <f t="shared" si="10"/>
         <v>-4.9631735620585316E-2</v>
       </c>
       <c r="K38">
-        <f>RANK(J38, J:J)</f>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="L38">
@@ -3038,15 +3041,15 @@
         <v>813108.87</v>
       </c>
       <c r="D39">
-        <f>(C39-B39)</f>
+        <f t="shared" si="6"/>
         <v>-70791.13</v>
       </c>
       <c r="E39" s="5">
-        <f>IFERROR(D39/B39,"0")</f>
+        <f t="shared" si="7"/>
         <v>-8.008952370177623E-2</v>
       </c>
       <c r="F39">
-        <f>RANK(E39,E:E,1)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G39">
@@ -3056,15 +3059,15 @@
         <v>1114242.27999999</v>
       </c>
       <c r="I39">
-        <f>(H39-G39)</f>
+        <f t="shared" si="9"/>
         <v>-180157.72000000998</v>
       </c>
       <c r="J39" s="5">
-        <f>IFERROR(I39/G39, "0")</f>
+        <f t="shared" si="10"/>
         <v>-0.13918241656366656</v>
       </c>
       <c r="K39">
-        <f>RANK(J39, J:J)</f>
+        <f t="shared" si="11"/>
         <v>46</v>
       </c>
       <c r="L39">
@@ -3086,15 +3089,15 @@
         <v>37565141.859999903</v>
       </c>
       <c r="D40">
-        <f>(C40-B40)</f>
+        <f t="shared" si="6"/>
         <v>-816758.14000009745</v>
       </c>
       <c r="E40" s="5">
-        <f>IFERROR(D40/B40,"0")</f>
+        <f t="shared" si="7"/>
         <v>-2.1279773539092578E-2</v>
       </c>
       <c r="F40">
-        <f>RANK(E40,E:E,1)</f>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="G40">
@@ -3104,15 +3107,15 @@
         <v>38095240.189999901</v>
       </c>
       <c r="I40">
-        <f>(H40-G40)</f>
+        <f t="shared" si="9"/>
         <v>-1869659.8100000992</v>
       </c>
       <c r="J40" s="5">
-        <f>IFERROR(I40/G40, "0")</f>
+        <f t="shared" si="10"/>
         <v>-4.6782546934937892E-2</v>
       </c>
       <c r="K40">
-        <f>RANK(J40, J:J)</f>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="L40">
@@ -3134,15 +3137,15 @@
         <v>4409060.2099999897</v>
       </c>
       <c r="D41">
-        <f>(C41-B41)</f>
+        <f t="shared" si="6"/>
         <v>-184239.79000001028</v>
       </c>
       <c r="E41" s="5">
-        <f>IFERROR(D41/B41,"0")</f>
+        <f t="shared" si="7"/>
         <v>-4.0110550149132493E-2</v>
       </c>
       <c r="F41">
-        <f>RANK(E41,E:E,1)</f>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="G41">
@@ -3152,15 +3155,15 @@
         <v>4956043.6699999897</v>
       </c>
       <c r="I41">
-        <f>(H41-G41)</f>
+        <f t="shared" si="9"/>
         <v>-133456.33000001032</v>
       </c>
       <c r="J41" s="5">
-        <f>IFERROR(I41/G41, "0")</f>
+        <f t="shared" si="10"/>
         <v>-2.6221894095689226E-2</v>
       </c>
       <c r="K41">
-        <f>RANK(J41, J:J)</f>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="L41">
@@ -3182,15 +3185,15 @@
         <v>188551675.67999899</v>
       </c>
       <c r="D42">
-        <f>(C42-B42)</f>
+        <f t="shared" si="6"/>
         <v>-41624.320001006126</v>
       </c>
       <c r="E42" s="5">
-        <f>IFERROR(D42/B42,"0")</f>
+        <f t="shared" si="7"/>
         <v>-2.2070943135841053E-4</v>
       </c>
       <c r="F42">
-        <f>RANK(E42,E:E,1)</f>
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
       <c r="G42">
@@ -3200,15 +3203,15 @@
         <v>196755033.31</v>
       </c>
       <c r="I42">
-        <f>(H42-G42)</f>
+        <f t="shared" si="9"/>
         <v>-2375266.6899999976</v>
       </c>
       <c r="J42" s="5">
-        <f>IFERROR(I42/G42, "0")</f>
+        <f t="shared" si="10"/>
         <v>-1.1928203241796942E-2</v>
       </c>
       <c r="K42">
-        <f>RANK(J42, J:J)</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="L42">
@@ -3230,15 +3233,15 @@
         <v>7968645.8300000001</v>
       </c>
       <c r="D43">
-        <f>(C43-B43)</f>
+        <f t="shared" si="6"/>
         <v>-166754.16999999993</v>
       </c>
       <c r="E43" s="5">
-        <f>IFERROR(D43/B43,"0")</f>
+        <f t="shared" si="7"/>
         <v>-2.0497353541313264E-2</v>
       </c>
       <c r="F43">
-        <f>RANK(E43,E:E,1)</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="G43">
@@ -3248,15 +3251,15 @@
         <v>8171472.0199999996</v>
       </c>
       <c r="I43">
-        <f>(H43-G43)</f>
+        <f t="shared" si="9"/>
         <v>-389327.98000000045</v>
       </c>
       <c r="J43" s="5">
-        <f>IFERROR(I43/G43, "0")</f>
+        <f t="shared" si="10"/>
         <v>-4.5477990374731388E-2</v>
       </c>
       <c r="K43">
-        <f>RANK(J43, J:J)</f>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
       <c r="L43">
@@ -3278,15 +3281,15 @@
         <v>29789104.379999999</v>
       </c>
       <c r="D44">
-        <f>(C44-B44)</f>
+        <f t="shared" si="6"/>
         <v>-294095.62000000104</v>
       </c>
       <c r="E44" s="5">
-        <f>IFERROR(D44/B44,"0")</f>
+        <f t="shared" si="7"/>
         <v>-9.7760750186150751E-3</v>
       </c>
       <c r="F44">
-        <f>RANK(E44,E:E,1)</f>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="G44">
@@ -3296,15 +3299,15 @@
         <v>30793711.48</v>
       </c>
       <c r="I44">
-        <f>(H44-G44)</f>
+        <f t="shared" si="9"/>
         <v>-246988.51999999955</v>
       </c>
       <c r="J44" s="5">
-        <f>IFERROR(I44/G44, "0")</f>
+        <f t="shared" si="10"/>
         <v>-7.9569249404813532E-3</v>
       </c>
       <c r="K44">
-        <f>RANK(J44, J:J)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="L44">
@@ -3326,15 +3329,15 @@
         <v>54589584.0499999</v>
       </c>
       <c r="D45">
-        <f>(C45-B45)</f>
+        <f t="shared" si="6"/>
         <v>-712015.95000009984</v>
       </c>
       <c r="E45" s="5">
-        <f>IFERROR(D45/B45,"0")</f>
+        <f t="shared" si="7"/>
         <v>-1.287514194887851E-2</v>
       </c>
       <c r="F45">
-        <f>RANK(E45,E:E,1)</f>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="G45">
@@ -3344,15 +3347,15 @@
         <v>54594953.959999897</v>
       </c>
       <c r="I45">
-        <f>(H45-G45)</f>
+        <f t="shared" si="9"/>
         <v>-2197246.0400001034</v>
       </c>
       <c r="J45" s="5">
-        <f>IFERROR(I45/G45, "0")</f>
+        <f t="shared" si="10"/>
         <v>-3.8689222111488959E-2</v>
       </c>
       <c r="K45">
-        <f>RANK(J45, J:J)</f>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="L45">
@@ -3374,15 +3377,15 @@
         <v>258322.43</v>
       </c>
       <c r="D46">
-        <f>(C46-B46)</f>
+        <f t="shared" si="6"/>
         <v>-777.57000000000698</v>
       </c>
       <c r="E46" s="5">
-        <f>IFERROR(D46/B46,"0")</f>
+        <f t="shared" si="7"/>
         <v>-3.0010420686993711E-3</v>
       </c>
       <c r="F46">
-        <f>RANK(E46,E:E,1)</f>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="G46">
@@ -3392,15 +3395,15 @@
         <v>257402.90999999901</v>
       </c>
       <c r="I46">
-        <f>(H46-G46)</f>
+        <f t="shared" si="9"/>
         <v>-8597.090000000986</v>
       </c>
       <c r="J46" s="5">
-        <f>IFERROR(I46/G46, "0")</f>
+        <f t="shared" si="10"/>
         <v>-3.2319887218048821E-2</v>
       </c>
       <c r="K46">
-        <f>RANK(J46, J:J)</f>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="L46">
@@ -3422,15 +3425,15 @@
         <v>70378426.719999999</v>
       </c>
       <c r="D47">
-        <f>(C47-B47)</f>
+        <f t="shared" si="6"/>
         <v>-12273.280000001192</v>
       </c>
       <c r="E47" s="5">
-        <f>IFERROR(D47/B47,"0")</f>
+        <f t="shared" si="7"/>
         <v>-1.7435939690898361E-4</v>
       </c>
       <c r="F47">
-        <f>RANK(E47,E:E,1)</f>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="G47">
@@ -3440,15 +3443,15 @@
         <v>73442541.659999996</v>
       </c>
       <c r="I47">
-        <f>(H47-G47)</f>
+        <f t="shared" si="9"/>
         <v>-24458.340000003576</v>
       </c>
       <c r="J47" s="5">
-        <f>IFERROR(I47/G47, "0")</f>
+        <f t="shared" si="10"/>
         <v>-3.3291600310348285E-4</v>
       </c>
       <c r="K47">
-        <f>RANK(J47, J:J)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="L47">
@@ -3470,15 +3473,15 @@
         <v>6527352.5699999901</v>
       </c>
       <c r="D48">
-        <f>(C48-B48)</f>
+        <f t="shared" si="6"/>
         <v>-209747.43000000995</v>
       </c>
       <c r="E48" s="5">
-        <f>IFERROR(D48/B48,"0")</f>
+        <f t="shared" si="7"/>
         <v>-3.1133192323107857E-2</v>
       </c>
       <c r="F48">
-        <f>RANK(E48,E:E,1)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="G48">
@@ -3488,15 +3491,15 @@
         <v>6922072.5599999996</v>
       </c>
       <c r="I48">
-        <f>(H48-G48)</f>
+        <f t="shared" si="9"/>
         <v>-292627.44000000041</v>
       </c>
       <c r="J48" s="5">
-        <f>IFERROR(I48/G48, "0")</f>
+        <f t="shared" si="10"/>
         <v>-4.0559890224125802E-2</v>
       </c>
       <c r="K48">
-        <f>RANK(J48, J:J)</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="L48">
@@ -3518,15 +3521,15 @@
         <v>90499.43</v>
       </c>
       <c r="D49">
-        <f>(C49-B49)</f>
+        <f t="shared" si="6"/>
         <v>-1700.570000000007</v>
       </c>
       <c r="E49" s="5">
-        <f>IFERROR(D49/B49,"0")</f>
+        <f t="shared" si="7"/>
         <v>-1.8444360086767971E-2</v>
       </c>
       <c r="F49">
-        <f>RANK(E49,E:E,1)</f>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="G49">
@@ -3536,15 +3539,15 @@
         <v>95466.880000000005</v>
       </c>
       <c r="I49">
-        <f>(H49-G49)</f>
+        <f t="shared" si="9"/>
         <v>-7133.1199999999953</v>
       </c>
       <c r="J49" s="5">
-        <f>IFERROR(I49/G49, "0")</f>
+        <f t="shared" si="10"/>
         <v>-6.9523586744639335E-2</v>
       </c>
       <c r="K49">
-        <f>RANK(J49, J:J)</f>
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
       <c r="L49">
@@ -3566,15 +3569,15 @@
         <v>832600</v>
       </c>
       <c r="D50">
-        <f>(C50-B50)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E50" s="5">
-        <f>IFERROR(D50/B50,"0")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F50">
-        <f>RANK(E50,E:E,1)</f>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
       <c r="G50">
@@ -3584,15 +3587,15 @@
         <v>859100</v>
       </c>
       <c r="I50">
-        <f>(H50-G50)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J50" s="5">
-        <f>IFERROR(I50/G50, "0")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K50">
-        <f>RANK(J50, J:J)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L50">
@@ -3614,15 +3617,15 @@
         <v>8499425.3399999905</v>
       </c>
       <c r="D51">
-        <f>(C51-B51)</f>
+        <f t="shared" si="6"/>
         <v>-110074.66000000946</v>
       </c>
       <c r="E51" s="5">
-        <f>IFERROR(D51/B51,"0")</f>
+        <f t="shared" si="7"/>
         <v>-1.2785255822058129E-2</v>
       </c>
       <c r="F51">
-        <f>RANK(E51,E:E,1)</f>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="G51">
@@ -3632,15 +3635,15 @@
         <v>8599059.6199999992</v>
       </c>
       <c r="I51">
-        <f>(H51-G51)</f>
+        <f t="shared" si="9"/>
         <v>-326440.38000000082</v>
       </c>
       <c r="J51" s="5">
-        <f>IFERROR(I51/G51, "0")</f>
+        <f t="shared" si="10"/>
         <v>-3.6573903982970231E-2</v>
       </c>
       <c r="K51">
-        <f>RANK(J51, J:J)</f>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="L51">
@@ -3662,15 +3665,15 @@
         <v>2254684.7999999998</v>
       </c>
       <c r="D52">
-        <f>(C52-B52)</f>
+        <f t="shared" si="6"/>
         <v>-196315.20000000019</v>
       </c>
       <c r="E52" s="5">
-        <f>IFERROR(D52/B52,"0")</f>
+        <f t="shared" si="7"/>
         <v>-8.009596083231342E-2</v>
       </c>
       <c r="F52">
-        <f>RANK(E52,E:E,1)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="G52">
@@ -3680,15 +3683,15 @@
         <v>2204672.88</v>
       </c>
       <c r="I52">
-        <f>(H52-G52)</f>
+        <f t="shared" si="9"/>
         <v>-236027.12000000011</v>
       </c>
       <c r="J52" s="5">
-        <f>IFERROR(I52/G52, "0")</f>
+        <f t="shared" si="10"/>
         <v>-9.6704683082722218E-2</v>
       </c>
       <c r="K52">
-        <f>RANK(J52, J:J)</f>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="L52">
@@ -3736,7 +3739,7 @@
         <v>25</v>
       </c>
       <c r="B57">
-        <f t="shared" ref="B57:B61" si="0">VLOOKUP(A57,A$1:O$52,4,FALSE)</f>
+        <f t="shared" ref="B57:B61" si="12">VLOOKUP(A57,A$1:O$52,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="C57">
@@ -3749,11 +3752,11 @@
         <v>32</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>-149396.10000000987</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C57:C61" si="1">VLOOKUP(A58,A$1:P$52,9,FALSE)</f>
+        <f t="shared" ref="C58:C61" si="13">VLOOKUP(A58,A$1:P$52,9,FALSE)</f>
         <v>-189254.06000000006</v>
       </c>
     </row>
@@ -3762,11 +3765,11 @@
         <v>38</v>
       </c>
       <c r="B59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>-12230.810000000056</v>
       </c>
       <c r="C59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>-45485.580000000075</v>
       </c>
     </row>
@@ -3775,11 +3778,11 @@
         <v>39</v>
       </c>
       <c r="B60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>-4950.4699999999721</v>
       </c>
       <c r="C60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>-8005.7900000010268</v>
       </c>
     </row>
@@ -3788,11 +3791,11 @@
         <v>55</v>
       </c>
       <c r="B61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>-184239.79000001028</v>
       </c>
       <c r="C61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="13"/>
         <v>-133456.33000001032</v>
       </c>
     </row>
@@ -3837,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C70" si="2">_xlfn.XLOOKUP(A66,A$1:A$52,I$1:I$52)</f>
+        <f t="shared" ref="C66:C70" si="14">_xlfn.XLOOKUP(A66,A$1:A$52,I$1:I$52)</f>
         <v>0</v>
       </c>
     </row>
@@ -3846,11 +3849,11 @@
         <v>32</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B66:B70" si="3">_xlfn.XLOOKUP(A67,A$1:A$52,D$1:D$52)</f>
+        <f t="shared" ref="B67:B70" si="15">_xlfn.XLOOKUP(A67,A$1:A$52,D$1:D$52)</f>
         <v>-149396.10000000987</v>
       </c>
       <c r="C67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>-189254.06000000006</v>
       </c>
     </row>
@@ -3859,11 +3862,11 @@
         <v>38</v>
       </c>
       <c r="B68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-12230.810000000056</v>
       </c>
       <c r="C68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>-45485.580000000075</v>
       </c>
     </row>
@@ -3872,11 +3875,11 @@
         <v>39</v>
       </c>
       <c r="B69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-4950.4699999999721</v>
       </c>
       <c r="C69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>-8005.7900000010268</v>
       </c>
     </row>
@@ -3885,11 +3888,11 @@
         <v>55</v>
       </c>
       <c r="B70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-184239.79000001028</v>
       </c>
       <c r="C70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>-133456.33000001032</v>
       </c>
     </row>
@@ -3930,11 +3933,11 @@
         <v>25</v>
       </c>
       <c r="B75">
-        <f t="shared" ref="B75:B79" si="4">INDEX($D$2:$D$52, MATCH(A75,$A$2:$A$52, 0))</f>
+        <f t="shared" ref="B75:B79" si="16">INDEX($D$2:$D$52, MATCH(A75,$A$2:$A$52, 0))</f>
         <v>0</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75:C79" si="5">INDEX($I$2:$I$52, MATCH(A75, $A$2:$A$52))</f>
+        <f t="shared" ref="C75:C79" si="17">INDEX($I$2:$I$52, MATCH(A75, $A$2:$A$52))</f>
         <v>0</v>
       </c>
     </row>
@@ -3943,11 +3946,11 @@
         <v>32</v>
       </c>
       <c r="B76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>-149396.10000000987</v>
       </c>
       <c r="C76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-189254.06000000006</v>
       </c>
     </row>
@@ -3956,11 +3959,11 @@
         <v>38</v>
       </c>
       <c r="B77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>-12230.810000000056</v>
       </c>
       <c r="C77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-45485.580000000075</v>
       </c>
     </row>
@@ -3969,11 +3972,11 @@
         <v>39</v>
       </c>
       <c r="B78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>-4950.4699999999721</v>
       </c>
       <c r="C78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-8005.7900000010268</v>
       </c>
     </row>
@@ -3982,11 +3985,11 @@
         <v>55</v>
       </c>
       <c r="B79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>-184239.79000001028</v>
       </c>
       <c r="C79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-133456.33000001032</v>
       </c>
     </row>
@@ -4028,6 +4031,11 @@
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
